--- a/planner.xlsx
+++ b/planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF69334-3A22-4EFD-AB06-46059FB84AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C223656-6311-4DB4-AFB3-7399E19E7B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3960" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -463,9 +463,6 @@
     <t>Academic staff-Class</t>
   </si>
   <si>
-    <t>Academic staff-Courrse</t>
-  </si>
-  <si>
     <t>Academic staff-Score board</t>
   </si>
   <si>
@@ -581,6 +578,9 @@
   </si>
   <si>
     <t xml:space="preserve">19125073 </t>
+  </si>
+  <si>
+    <t>Academic staff-Course</t>
   </si>
 </sst>
 </file>
@@ -1234,14 +1234,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Bình thường" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Đầu đề 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Siêu kết nối" xfId="8" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1771,7 +1771,7 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1821,7 +1821,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1973,7 +1973,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1987,58 +1987,58 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="C7" s="67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="67" t="s">
         <v>119</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="C8" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="67" t="s">
         <v>122</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="C10" s="67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="67" t="s">
         <v>124</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2076,37 +2076,37 @@
     </row>
     <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.25">
       <c r="C21" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C27" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C28" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2132,12 +2132,12 @@
   </sheetPr>
   <dimension ref="A1:BN81"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2706,10 +2706,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="14">
         <v>1</v>
@@ -2729,7 +2729,7 @@
         <v>58</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
@@ -2749,7 +2749,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="14">
         <v>1</v>
@@ -2769,7 +2769,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="14">
         <v>1</v>
@@ -2789,7 +2789,7 @@
         <v>61</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
@@ -2820,10 +2820,10 @@
         <v>2.1</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="14">
         <v>1</v>
@@ -2840,10 +2840,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="14">
         <v>1</v>
@@ -2884,7 +2884,7 @@
         <v>62</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
@@ -2904,7 +2904,7 @@
         <v>63</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
@@ -2924,7 +2924,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="14">
         <v>1</v>
@@ -2944,7 +2944,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="14">
         <v>1</v>
@@ -2964,7 +2964,7 @@
         <v>66</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" s="14">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C22" s="58"/>
       <c r="D22" s="14"/>
@@ -3009,7 +3009,7 @@
         <v>3.2</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="58"/>
       <c r="D24" s="14"/>
@@ -3065,7 +3065,7 @@
         <v>3.6</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="58"/>
       <c r="D28" s="14"/>
@@ -3079,7 +3079,7 @@
         <v>3.7</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="58"/>
       <c r="D29" s="14"/>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>73</v>
@@ -3149,7 +3149,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="58"/>
       <c r="D34" s="14"/>
@@ -3191,7 +3191,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="58"/>
       <c r="D37" s="14"/>
@@ -3233,7 +3233,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="58"/>
       <c r="D40" s="14"/>
@@ -3345,7 +3345,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" s="58"/>
       <c r="D48" s="14"/>
@@ -3359,7 +3359,7 @@
         <v>7.1</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" s="58"/>
       <c r="D49" s="14"/>

--- a/planner.xlsx
+++ b/planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C223656-6311-4DB4-AFB3-7399E19E7B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231ED310-6868-4C25-ABEB-0237E2AB1D97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3960" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
   <si>
     <t>Project Planner</t>
   </si>
@@ -581,6 +581,21 @@
   </si>
   <si>
     <t>Academic staff-Course</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Additional Functions</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>Hash password</t>
+  </si>
+  <si>
+    <t>Staff login done (1/3)</t>
   </si>
 </sst>
 </file>
@@ -1234,14 +1249,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Đầu đề 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Siêu kết nối" xfId="8" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -2130,14 +2145,14 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN81"/>
+  <dimension ref="A1:BN89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2715,11 +2730,17 @@
         <v>1</v>
       </c>
       <c r="E9" s="14">
-        <v>7</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" s="65">
@@ -2735,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -2755,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -2775,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -2795,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -2829,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -2849,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
@@ -2890,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -2910,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -2930,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -2950,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -2970,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -3410,27 +3431,115 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="41"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="2" t="s">
+    <row r="53" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="58"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="58"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="65"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="65"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="65"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="65"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="65"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="65"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="41"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="41"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="41"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="2" t="s">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="2" t="s">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3439,7 +3548,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="J8:BN52">
+  <conditionalFormatting sqref="J8:BN60">
     <cfRule type="expression" dxfId="9" priority="3501">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -3465,7 +3574,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:BN53">
+  <conditionalFormatting sqref="B61:BN61">
     <cfRule type="expression" dxfId="1" priority="3502">
       <formula>TRUE</formula>
     </cfRule>
@@ -3478,7 +3587,7 @@
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A32" numberStoredAsText="1"/>
+    <ignoredError sqref="A32 A53:A54" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -3525,7 +3634,9 @@
   </sheetPr>
   <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3546,8 +3657,12 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="C3" s="51"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">

--- a/planner.xlsx
+++ b/planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231ED310-6868-4C25-ABEB-0237E2AB1D97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4602D472-35DA-40DF-8C66-4F369D0DA507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -2147,12 +2147,12 @@
   </sheetPr>
   <dimension ref="A1:BN89"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2818,9 +2818,15 @@
       <c r="E13" s="14">
         <v>14</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="14">
+        <v>2</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A14" s="64">
@@ -3634,7 +3640,7 @@
   </sheetPr>
   <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+    <sheetView zoomScale="140" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/planner.xlsx
+++ b/planner.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4602D472-35DA-40DF-8C66-4F369D0DA507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E578249-A2E9-9A4C-94A0-8DEDB5C4C92F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1249,14 +1247,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Bình thường" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Đầu đề 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Siêu kết nối" xfId="8" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1494,15 +1492,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1790,16 +1788,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="52.125" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
         <v>14</v>
       </c>
@@ -1811,7 +1809,7 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1821,7 +1819,7 @@
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1831,7 +1829,7 @@
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>32</v>
       </c>
@@ -1839,7 +1837,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
@@ -1847,7 +1845,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>55</v>
       </c>
@@ -1855,7 +1853,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
@@ -1872,7 +1870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="23" t="s">
         <v>17</v>
       </c>
@@ -1883,7 +1881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="23" t="s">
         <v>18</v>
       </c>
@@ -1894,7 +1892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
         <v>19</v>
       </c>
@@ -1904,7 +1902,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="23" t="s">
         <v>20</v>
       </c>
@@ -1913,7 +1911,7 @@
       </c>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
         <v>21</v>
       </c>
@@ -1921,7 +1919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
@@ -1949,15 +1947,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
         <v>34</v>
       </c>
@@ -1967,7 +1965,7 @@
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1975,7 +1973,7 @@
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
     </row>
-    <row r="3" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1983,7 +1981,7 @@
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>35</v>
       </c>
@@ -1991,10 +1989,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
@@ -2008,7 +2006,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="17"/>
       <c r="C7" s="67" t="s">
         <v>99</v>
@@ -2020,7 +2018,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
       <c r="C8" s="67" t="s">
         <v>100</v>
@@ -2032,7 +2030,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="17"/>
       <c r="C9" s="67" t="s">
         <v>101</v>
@@ -2044,7 +2042,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="17"/>
       <c r="C10" s="67" t="s">
         <v>102</v>
@@ -2056,16 +2054,16 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="17"/>
       <c r="C11" s="67"/>
       <c r="D11" s="68"/>
       <c r="E11" s="67"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="17"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="s">
         <v>37</v>
       </c>
@@ -2076,7 +2074,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>38</v>
       </c>
@@ -2085,41 +2083,41 @@
       </c>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="17"/>
       <c r="C15" s="28"/>
     </row>
-    <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.2">
       <c r="C21" s="50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C22" s="46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C23" s="46" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C24" s="46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="46" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" ht="29" x14ac:dyDescent="0.2">
       <c r="C27" s="54" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" ht="29" x14ac:dyDescent="0.2">
       <c r="C28" s="54" t="s">
         <v>97</v>
       </c>
@@ -2152,45 +2150,45 @@
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="41.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="4.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.875" style="1"/>
+    <col min="11" max="11" width="5.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.83203125" style="1"/>
     <col min="13" max="13" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="8" style="1" customWidth="1"/>
     <col min="18" max="18" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="2.875" style="1"/>
-    <col min="23" max="23" width="3.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.625" style="1" customWidth="1"/>
-    <col min="25" max="29" width="2.875" style="1"/>
+    <col min="19" max="22" width="2.83203125" style="1"/>
+    <col min="23" max="23" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" style="1" customWidth="1"/>
+    <col min="25" max="29" width="2.83203125" style="1"/>
     <col min="30" max="30" width="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8.5" customWidth="1"/>
-    <col min="37" max="37" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.125" customWidth="1"/>
-    <col min="44" max="44" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.1640625" customWidth="1"/>
+    <col min="44" max="44" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
@@ -2201,7 +2199,7 @@
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
     </row>
-    <row r="2" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -2245,7 +2243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:66" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
@@ -2259,7 +2257,7 @@
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
     </row>
-    <row r="4" spans="1:66" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="32" t="s">
@@ -2702,7 +2700,7 @@
       <c r="BM7" s="3"/>
       <c r="BN7" s="3"/>
     </row>
-    <row r="8" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" s="64">
         <v>1</v>
       </c>
@@ -2716,7 +2714,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="65">
         <v>1.1000000000000001</v>
       </c>
@@ -2742,7 +2740,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="65">
         <v>1.2</v>
       </c>
@@ -2762,7 +2760,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="65">
         <v>1.3</v>
       </c>
@@ -2782,7 +2780,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="65">
         <v>1.4</v>
       </c>
@@ -2802,7 +2800,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="65">
         <v>1.5</v>
       </c>
@@ -2818,17 +2816,11 @@
       <c r="E13" s="14">
         <v>14</v>
       </c>
-      <c r="F13" s="14">
-        <v>2</v>
-      </c>
-      <c r="G13" s="14">
-        <v>1</v>
-      </c>
-      <c r="H13" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14" s="64">
         <v>2</v>
       </c>
@@ -2842,7 +2834,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="65">
         <v>2.1</v>
       </c>
@@ -2862,7 +2854,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:66" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="66">
         <v>2.2000000000000002</v>
       </c>
@@ -2903,7 +2895,7 @@
       <c r="AB16" s="57"/>
       <c r="AC16" s="57"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="65">
         <v>2.2999999999999998</v>
       </c>
@@ -2919,11 +2911,17 @@
       <c r="E17" s="14">
         <v>14</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="14">
+        <v>2</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="65">
         <v>2.4</v>
       </c>
@@ -2943,7 +2941,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="65">
         <v>2.5</v>
       </c>
@@ -2963,7 +2961,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="65">
         <v>2.6</v>
       </c>
@@ -2983,7 +2981,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="65">
         <v>2.7</v>
       </c>
@@ -3003,7 +3001,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="64">
         <v>3</v>
       </c>
@@ -3017,7 +3015,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="65">
         <v>3.1</v>
       </c>
@@ -3031,7 +3029,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="65">
         <v>3.2</v>
       </c>
@@ -3045,7 +3043,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="65">
         <v>3.3</v>
       </c>
@@ -3059,7 +3057,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="65">
         <v>3.4</v>
       </c>
@@ -3073,7 +3071,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="65">
         <v>3.5</v>
       </c>
@@ -3087,7 +3085,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="65">
         <v>3.6</v>
       </c>
@@ -3101,7 +3099,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="65">
         <v>3.7</v>
       </c>
@@ -3115,7 +3113,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="65">
         <v>3.8</v>
       </c>
@@ -3129,7 +3127,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="65">
         <v>3.9</v>
       </c>
@@ -3143,7 +3141,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="65" t="s">
         <v>110</v>
       </c>
@@ -3157,7 +3155,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="65">
         <v>3.11</v>
       </c>
@@ -3171,7 +3169,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="64">
         <v>4</v>
       </c>
@@ -3185,7 +3183,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="65">
         <v>4.0999999999999996</v>
       </c>
@@ -3199,7 +3197,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="65">
         <v>4.2</v>
       </c>
@@ -3213,7 +3211,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="64">
         <v>5</v>
       </c>
@@ -3227,7 +3225,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="65">
         <v>5.0999999999999996</v>
       </c>
@@ -3241,7 +3239,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="65">
         <v>5.2</v>
       </c>
@@ -3255,7 +3253,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="64">
         <v>6</v>
       </c>
@@ -3269,7 +3267,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="65">
         <v>6.1</v>
       </c>
@@ -3283,7 +3281,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="65">
         <v>6.2</v>
       </c>
@@ -3297,7 +3295,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="65">
         <v>6.3</v>
       </c>
@@ -3311,7 +3309,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="65">
         <v>6.4</v>
       </c>
@@ -3325,7 +3323,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="65">
         <v>6.5</v>
       </c>
@@ -3339,7 +3337,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="65">
         <v>6.6</v>
       </c>
@@ -3353,7 +3351,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="65">
         <v>6.7</v>
       </c>
@@ -3367,7 +3365,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="64">
         <v>7</v>
       </c>
@@ -3381,7 +3379,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="65">
         <v>7.1</v>
       </c>
@@ -3395,7 +3393,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="65">
         <v>7.2</v>
       </c>
@@ -3409,7 +3407,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="65">
         <v>7.3</v>
       </c>
@@ -3423,7 +3421,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="65">
         <v>7.4</v>
       </c>
@@ -3437,7 +3435,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="64" t="s">
         <v>127</v>
       </c>
@@ -3451,7 +3449,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="65" t="s">
         <v>129</v>
       </c>
@@ -3465,7 +3463,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="65"/>
       <c r="B55" s="62"/>
       <c r="C55" s="58"/>
@@ -3475,7 +3473,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="65"/>
       <c r="B56" s="62"/>
       <c r="C56" s="58"/>
@@ -3485,7 +3483,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="65"/>
       <c r="B57" s="62"/>
       <c r="C57" s="58"/>
@@ -3495,7 +3493,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="65"/>
       <c r="B58" s="62"/>
       <c r="C58" s="58"/>
@@ -3505,7 +3503,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="65"/>
       <c r="B59" s="62"/>
       <c r="C59" s="58"/>
@@ -3515,7 +3513,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="65"/>
       <c r="B60" s="62"/>
       <c r="C60" s="58"/>
@@ -3525,26 +3523,26 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>53</v>
       </c>
@@ -3607,15 +3605,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>15</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3644,14 +3642,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="125.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="125.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>45</v>
       </c>
@@ -3662,7 +3660,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="51">
         <v>1.1000000000000001</v>
       </c>
@@ -3671,44 +3669,44 @@
       </c>
       <c r="C3" s="51"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="47"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="47"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="47"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="47"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
       <c r="B8" s="47"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="47"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="47"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="47"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="47"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="42"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
     </row>
   </sheetData>

--- a/planner.xlsx
+++ b/planner.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E578249-A2E9-9A4C-94A0-8DEDB5C4C92F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD4BF40-B306-4229-AFD6-72D6341DE240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1247,14 +1249,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Đầu đề 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Siêu kết nối" xfId="8" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1492,15 +1494,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1788,16 +1790,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="52.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="52.125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>14</v>
       </c>
@@ -1809,7 +1811,7 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1819,7 +1821,7 @@
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1829,7 +1831,7 @@
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>32</v>
       </c>
@@ -1837,7 +1839,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>55</v>
       </c>
@@ -1853,7 +1855,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
@@ -1870,7 +1872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>17</v>
       </c>
@@ -1881,7 +1883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
         <v>18</v>
       </c>
@@ -1892,7 +1894,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
         <v>19</v>
       </c>
@@ -1902,7 +1904,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
         <v>20</v>
       </c>
@@ -1911,7 +1913,7 @@
       </c>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
         <v>21</v>
       </c>
@@ -1919,7 +1921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
@@ -1947,15 +1949,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>34</v>
       </c>
@@ -1965,7 +1967,7 @@
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1973,7 +1975,7 @@
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
     </row>
-    <row r="3" spans="1:6" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1981,7 +1983,7 @@
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>35</v>
       </c>
@@ -1989,10 +1991,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
@@ -2006,7 +2008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="C7" s="67" t="s">
         <v>99</v>
@@ -2018,7 +2020,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="C8" s="67" t="s">
         <v>100</v>
@@ -2030,7 +2032,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="67" t="s">
         <v>101</v>
@@ -2042,7 +2044,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="C10" s="67" t="s">
         <v>102</v>
@@ -2054,16 +2056,16 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="C11" s="67"/>
       <c r="D11" s="68"/>
       <c r="E11" s="67"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>37</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>38</v>
       </c>
@@ -2083,41 +2085,41 @@
       </c>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="28"/>
     </row>
-    <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.25">
       <c r="C21" s="50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="46" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="46" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C27" s="54" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="3:3" ht="29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C28" s="54" t="s">
         <v>97</v>
       </c>
@@ -2150,45 +2152,25 @@
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="41.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.83203125" style="1"/>
-    <col min="13" max="13" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="2.83203125" style="1"/>
-    <col min="23" max="23" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.6640625" style="1" customWidth="1"/>
-    <col min="25" max="29" width="2.83203125" style="1"/>
-    <col min="30" max="30" width="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.5" customWidth="1"/>
-    <col min="37" max="37" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.1640625" customWidth="1"/>
-    <col min="44" max="44" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="1" customWidth="1"/>
+    <col min="10" max="29" width="7.625" style="1" customWidth="1"/>
+    <col min="30" max="66" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
@@ -2199,7 +2181,7 @@
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -2243,7 +2225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
@@ -2257,7 +2239,7 @@
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
     </row>
-    <row r="4" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="32" t="s">
@@ -2700,7 +2682,7 @@
       <c r="BM7" s="3"/>
       <c r="BN7" s="3"/>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="64">
         <v>1</v>
       </c>
@@ -2714,7 +2696,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:66" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" s="65">
         <v>1.1000000000000001</v>
       </c>
@@ -2740,7 +2722,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:66" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" s="65">
         <v>1.2</v>
       </c>
@@ -2756,11 +2738,17 @@
       <c r="E10" s="14">
         <v>14</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:66" ht="17" x14ac:dyDescent="0.2">
+      <c r="F10" s="14">
+        <v>2</v>
+      </c>
+      <c r="G10" s="14">
+        <v>2</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11" s="65">
         <v>1.3</v>
       </c>
@@ -2780,7 +2768,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:66" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" s="65">
         <v>1.4</v>
       </c>
@@ -2800,7 +2788,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:66" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" s="65">
         <v>1.5</v>
       </c>
@@ -2816,11 +2804,17 @@
       <c r="E13" s="14">
         <v>14</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="F13" s="14">
+        <v>2</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A14" s="64">
         <v>2</v>
       </c>
@@ -2834,7 +2828,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:66" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" s="65">
         <v>2.1</v>
       </c>
@@ -2854,7 +2848,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:66" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66">
         <v>2.2000000000000002</v>
       </c>
@@ -2895,7 +2889,7 @@
       <c r="AB16" s="57"/>
       <c r="AC16" s="57"/>
     </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="65">
         <v>2.2999999999999998</v>
       </c>
@@ -2921,7 +2915,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="65">
         <v>2.4</v>
       </c>
@@ -2941,7 +2935,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="65">
         <v>2.5</v>
       </c>
@@ -2961,7 +2955,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="65">
         <v>2.6</v>
       </c>
@@ -2981,7 +2975,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="65">
         <v>2.7</v>
       </c>
@@ -3001,7 +2995,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A22" s="64">
         <v>3</v>
       </c>
@@ -3015,7 +3009,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="65">
         <v>3.1</v>
       </c>
@@ -3029,7 +3023,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="65">
         <v>3.2</v>
       </c>
@@ -3043,7 +3037,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="65">
         <v>3.3</v>
       </c>
@@ -3057,7 +3051,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="65">
         <v>3.4</v>
       </c>
@@ -3071,7 +3065,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="65">
         <v>3.5</v>
       </c>
@@ -3085,7 +3079,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="65">
         <v>3.6</v>
       </c>
@@ -3099,7 +3093,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="65">
         <v>3.7</v>
       </c>
@@ -3113,7 +3107,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="65">
         <v>3.8</v>
       </c>
@@ -3127,7 +3121,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="65">
         <v>3.9</v>
       </c>
@@ -3141,7 +3135,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
         <v>110</v>
       </c>
@@ -3155,7 +3149,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="65">
         <v>3.11</v>
       </c>
@@ -3169,7 +3163,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A34" s="64">
         <v>4</v>
       </c>
@@ -3183,7 +3177,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="65">
         <v>4.0999999999999996</v>
       </c>
@@ -3197,7 +3191,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="65">
         <v>4.2</v>
       </c>
@@ -3211,7 +3205,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A37" s="64">
         <v>5</v>
       </c>
@@ -3225,7 +3219,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="65">
         <v>5.0999999999999996</v>
       </c>
@@ -3239,7 +3233,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="65">
         <v>5.2</v>
       </c>
@@ -3253,7 +3247,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A40" s="64">
         <v>6</v>
       </c>
@@ -3267,7 +3261,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="65">
         <v>6.1</v>
       </c>
@@ -3281,7 +3275,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="65">
         <v>6.2</v>
       </c>
@@ -3295,7 +3289,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="65">
         <v>6.3</v>
       </c>
@@ -3309,7 +3303,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="65">
         <v>6.4</v>
       </c>
@@ -3323,7 +3317,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="65">
         <v>6.5</v>
       </c>
@@ -3337,7 +3331,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="65">
         <v>6.6</v>
       </c>
@@ -3351,7 +3345,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="65">
         <v>6.7</v>
       </c>
@@ -3365,7 +3359,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A48" s="64">
         <v>7</v>
       </c>
@@ -3379,7 +3373,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="65">
         <v>7.1</v>
       </c>
@@ -3393,7 +3387,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="65">
         <v>7.2</v>
       </c>
@@ -3407,7 +3401,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="65">
         <v>7.3</v>
       </c>
@@ -3421,7 +3415,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="65">
         <v>7.4</v>
       </c>
@@ -3435,7 +3429,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A53" s="64" t="s">
         <v>127</v>
       </c>
@@ -3449,7 +3443,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
         <v>129</v>
       </c>
@@ -3463,7 +3457,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="65"/>
       <c r="B55" s="62"/>
       <c r="C55" s="58"/>
@@ -3473,7 +3467,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="65"/>
       <c r="B56" s="62"/>
       <c r="C56" s="58"/>
@@ -3483,7 +3477,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="65"/>
       <c r="B57" s="62"/>
       <c r="C57" s="58"/>
@@ -3493,7 +3487,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="65"/>
       <c r="B58" s="62"/>
       <c r="C58" s="58"/>
@@ -3503,7 +3497,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="65"/>
       <c r="B59" s="62"/>
       <c r="C59" s="58"/>
@@ -3513,7 +3507,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="65"/>
       <c r="B60" s="62"/>
       <c r="C60" s="58"/>
@@ -3523,26 +3517,26 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="41"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="41"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>53</v>
       </c>
@@ -3605,15 +3599,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>15</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3642,14 +3636,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="125.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="125.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>45</v>
       </c>
@@ -3660,7 +3654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="51">
         <v>1.1000000000000001</v>
       </c>
@@ -3669,44 +3663,44 @@
       </c>
       <c r="C3" s="51"/>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="47"/>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="47"/>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
       <c r="B6" s="47"/>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="47"/>
     </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="48"/>
       <c r="B8" s="47"/>
     </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="47"/>
     </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" s="47"/>
     </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="47"/>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="47"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="42"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
     </row>
   </sheetData>

--- a/planner.xlsx
+++ b/planner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD4BF40-B306-4229-AFD6-72D6341DE240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E482FA-18FC-47D6-8969-DE277AB24D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2152,7 +2152,7 @@
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2784,9 +2784,15 @@
       <c r="E12" s="14">
         <v>14</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="14">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" s="65">

--- a/planner.xlsx
+++ b/planner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E482FA-18FC-47D6-8969-DE277AB24D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4D85D7-9E11-4BC4-B040-85DFBE424218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="134">
   <si>
     <t>Project Planner</t>
   </si>
@@ -596,6 +596,12 @@
   </si>
   <si>
     <t>Staff login done (1/3)</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>Settings</t>
   </si>
 </sst>
 </file>
@@ -2145,14 +2151,14 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN89"/>
+  <dimension ref="A1:BN68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="J52" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2716,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="15">
         <v>0.33</v>
@@ -3464,8 +3470,12 @@
       <c r="H54" s="15"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
-      <c r="B55" s="62"/>
+      <c r="A55" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="62" t="s">
+        <v>133</v>
+      </c>
       <c r="C55" s="58"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
@@ -3532,18 +3542,18 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="41"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="2" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="2" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="2" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
         <v>53</v>
       </c>
     </row>

--- a/planner.xlsx
+++ b/planner.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4D85D7-9E11-4BC4-B040-85DFBE424218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BEEAAC-8D36-DB47-A753-94BD184B557B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -1255,14 +1255,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Bình thường" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Đầu đề 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Siêu kết nối" xfId="8" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1500,15 +1500,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1796,16 +1796,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="52.125" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
         <v>14</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1827,7 +1827,7 @@
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1837,7 +1837,7 @@
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>32</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>55</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="23" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="23" t="s">
         <v>18</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
         <v>19</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="23" t="s">
         <v>20</v>
       </c>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
         <v>21</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
@@ -1955,15 +1955,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
         <v>34</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1981,7 +1981,7 @@
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
     </row>
-    <row r="3" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1989,7 +1989,7 @@
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>35</v>
       </c>
@@ -1997,10 +1997,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="17"/>
       <c r="C7" s="67" t="s">
         <v>99</v>
@@ -2026,7 +2026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
       <c r="C8" s="67" t="s">
         <v>100</v>
@@ -2038,7 +2038,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="17"/>
       <c r="C9" s="67" t="s">
         <v>101</v>
@@ -2050,7 +2050,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="17"/>
       <c r="C10" s="67" t="s">
         <v>102</v>
@@ -2062,16 +2062,16 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="17"/>
       <c r="C11" s="67"/>
       <c r="D11" s="68"/>
       <c r="E11" s="67"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="17"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="s">
         <v>37</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>38</v>
       </c>
@@ -2091,41 +2091,41 @@
       </c>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="17"/>
       <c r="C15" s="28"/>
     </row>
-    <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.2">
       <c r="C21" s="50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C22" s="46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C23" s="46" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C24" s="46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="46" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" ht="29" x14ac:dyDescent="0.2">
       <c r="C27" s="54" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" ht="29" x14ac:dyDescent="0.2">
       <c r="C28" s="54" t="s">
         <v>97</v>
       </c>
@@ -2153,30 +2153,30 @@
   </sheetPr>
   <dimension ref="A1:BN68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="J52" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="41.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="4.125" style="1" customWidth="1"/>
-    <col min="10" max="29" width="7.625" style="1" customWidth="1"/>
-    <col min="30" max="66" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
+    <col min="10" max="29" width="7.6640625" style="1" customWidth="1"/>
+    <col min="30" max="66" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
     </row>
-    <row r="2" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -2231,7 +2231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:66" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
@@ -2245,7 +2245,7 @@
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
     </row>
-    <row r="4" spans="1:66" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="32" t="s">
@@ -2688,7 +2688,7 @@
       <c r="BM7" s="3"/>
       <c r="BN7" s="3"/>
     </row>
-    <row r="8" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" s="64">
         <v>1</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="65">
         <v>1.1000000000000001</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="65">
         <v>1.2</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="65">
         <v>1.3</v>
       </c>
@@ -2774,7 +2774,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="65">
         <v>1.4</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="65">
         <v>1.5</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14" s="64">
         <v>2</v>
       </c>
@@ -2840,7 +2840,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="65">
         <v>2.1</v>
       </c>
@@ -2860,7 +2860,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:66" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="66">
         <v>2.2000000000000002</v>
       </c>
@@ -2901,7 +2901,7 @@
       <c r="AB16" s="57"/>
       <c r="AC16" s="57"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="65">
         <v>2.2999999999999998</v>
       </c>
@@ -2921,13 +2921,13 @@
         <v>2</v>
       </c>
       <c r="G17" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="65">
         <v>2.4</v>
       </c>
@@ -2943,11 +2943,15 @@
       <c r="E18" s="14">
         <v>14</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="F18" s="14">
+        <v>3</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="65">
         <v>2.5</v>
       </c>
@@ -2967,7 +2971,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="65">
         <v>2.6</v>
       </c>
@@ -2987,7 +2991,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="65">
         <v>2.7</v>
       </c>
@@ -3007,7 +3011,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="64">
         <v>3</v>
       </c>
@@ -3021,7 +3025,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="65">
         <v>3.1</v>
       </c>
@@ -3035,7 +3039,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="65">
         <v>3.2</v>
       </c>
@@ -3049,7 +3053,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="65">
         <v>3.3</v>
       </c>
@@ -3063,7 +3067,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="65">
         <v>3.4</v>
       </c>
@@ -3077,7 +3081,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="65">
         <v>3.5</v>
       </c>
@@ -3091,7 +3095,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="65">
         <v>3.6</v>
       </c>
@@ -3105,7 +3109,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="65">
         <v>3.7</v>
       </c>
@@ -3119,7 +3123,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="65">
         <v>3.8</v>
       </c>
@@ -3133,7 +3137,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="65">
         <v>3.9</v>
       </c>
@@ -3147,7 +3151,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="65" t="s">
         <v>110</v>
       </c>
@@ -3161,7 +3165,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="65">
         <v>3.11</v>
       </c>
@@ -3175,7 +3179,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="64">
         <v>4</v>
       </c>
@@ -3189,7 +3193,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="65">
         <v>4.0999999999999996</v>
       </c>
@@ -3203,7 +3207,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="65">
         <v>4.2</v>
       </c>
@@ -3217,7 +3221,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="64">
         <v>5</v>
       </c>
@@ -3231,7 +3235,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="65">
         <v>5.0999999999999996</v>
       </c>
@@ -3245,7 +3249,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="65">
         <v>5.2</v>
       </c>
@@ -3259,7 +3263,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="64">
         <v>6</v>
       </c>
@@ -3273,7 +3277,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="65">
         <v>6.1</v>
       </c>
@@ -3287,7 +3291,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="65">
         <v>6.2</v>
       </c>
@@ -3301,7 +3305,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="65">
         <v>6.3</v>
       </c>
@@ -3315,7 +3319,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="65">
         <v>6.4</v>
       </c>
@@ -3329,7 +3333,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="65">
         <v>6.5</v>
       </c>
@@ -3343,7 +3347,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="65">
         <v>6.6</v>
       </c>
@@ -3357,7 +3361,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="65">
         <v>6.7</v>
       </c>
@@ -3371,7 +3375,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="64">
         <v>7</v>
       </c>
@@ -3385,7 +3389,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="65">
         <v>7.1</v>
       </c>
@@ -3399,7 +3403,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="65">
         <v>7.2</v>
       </c>
@@ -3413,7 +3417,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="65">
         <v>7.3</v>
       </c>
@@ -3427,7 +3431,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="65">
         <v>7.4</v>
       </c>
@@ -3441,7 +3445,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="64" t="s">
         <v>127</v>
       </c>
@@ -3455,7 +3459,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="65" t="s">
         <v>129</v>
       </c>
@@ -3469,7 +3473,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="65" t="s">
         <v>132</v>
       </c>
@@ -3483,7 +3487,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="65"/>
       <c r="B56" s="62"/>
       <c r="C56" s="58"/>
@@ -3493,7 +3497,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="65"/>
       <c r="B57" s="62"/>
       <c r="C57" s="58"/>
@@ -3503,7 +3507,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="65"/>
       <c r="B58" s="62"/>
       <c r="C58" s="58"/>
@@ -3513,7 +3517,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="65"/>
       <c r="B59" s="62"/>
       <c r="C59" s="58"/>
@@ -3523,7 +3527,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="65"/>
       <c r="B60" s="62"/>
       <c r="C60" s="58"/>
@@ -3533,26 +3537,26 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>53</v>
       </c>
@@ -3615,15 +3619,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>15</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3652,14 +3656,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="125.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="125.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>45</v>
       </c>
@@ -3670,7 +3674,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="51">
         <v>1.1000000000000001</v>
       </c>
@@ -3679,44 +3683,44 @@
       </c>
       <c r="C3" s="51"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="47"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="47"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="47"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="47"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
       <c r="B8" s="47"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="47"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="47"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="47"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="47"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="42"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
     </row>
   </sheetData>

--- a/planner.xlsx
+++ b/planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BEEAAC-8D36-DB47-A753-94BD184B557B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CEC35A-3B63-6F49-B396-EF045B0B5B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -2154,11 +2154,11 @@
   <dimension ref="A1:BN68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2924,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="15">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2949,7 +2949,9 @@
       <c r="G18" s="14">
         <v>1</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="65">

--- a/planner.xlsx
+++ b/planner.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CEC35A-3B63-6F49-B396-EF045B0B5B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CF72CF-E532-43AC-A524-138EC7A252C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3960" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -1500,15 +1500,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1796,16 +1796,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="52.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="52.125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>14</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1827,7 +1827,7 @@
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1837,7 +1837,7 @@
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>32</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>55</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
         <v>18</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
         <v>19</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
         <v>20</v>
       </c>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
         <v>21</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
@@ -1955,15 +1955,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>34</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1981,7 +1981,7 @@
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
     </row>
-    <row r="3" spans="1:6" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1989,7 +1989,7 @@
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>35</v>
       </c>
@@ -1997,10 +1997,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="C7" s="67" t="s">
         <v>99</v>
@@ -2026,7 +2026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="C8" s="67" t="s">
         <v>100</v>
@@ -2038,7 +2038,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="67" t="s">
         <v>101</v>
@@ -2050,7 +2050,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="C10" s="67" t="s">
         <v>102</v>
@@ -2062,16 +2062,16 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="C11" s="67"/>
       <c r="D11" s="68"/>
       <c r="E11" s="67"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>37</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>38</v>
       </c>
@@ -2091,41 +2091,41 @@
       </c>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="28"/>
     </row>
-    <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.25">
       <c r="C21" s="50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="46" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="46" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C27" s="54" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="3:3" ht="29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C28" s="54" t="s">
         <v>97</v>
       </c>
@@ -2154,29 +2154,29 @@
   <dimension ref="A1:BN68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="41.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
-    <col min="10" max="29" width="7.6640625" style="1" customWidth="1"/>
-    <col min="30" max="66" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="1" customWidth="1"/>
+    <col min="10" max="29" width="7.625" style="1" customWidth="1"/>
+    <col min="30" max="66" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -2231,7 +2231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
@@ -2245,7 +2245,7 @@
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
     </row>
-    <row r="4" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="32" t="s">
@@ -2688,7 +2688,7 @@
       <c r="BM7" s="3"/>
       <c r="BN7" s="3"/>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="64">
         <v>1</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:66" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" s="65">
         <v>1.1000000000000001</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:66" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" s="65">
         <v>1.2</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:66" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11" s="65">
         <v>1.3</v>
       </c>
@@ -2774,7 +2774,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:66" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" s="65">
         <v>1.4</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:66" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" s="65">
         <v>1.5</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A14" s="64">
         <v>2</v>
       </c>
@@ -2840,7 +2840,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:66" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" s="65">
         <v>2.1</v>
       </c>
@@ -2856,11 +2856,17 @@
       <c r="E15" s="14">
         <v>14</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:66" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="F15" s="14">
+        <v>2</v>
+      </c>
+      <c r="G15" s="14">
+        <v>2</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66">
         <v>2.2000000000000002</v>
       </c>
@@ -2901,7 +2907,7 @@
       <c r="AB16" s="57"/>
       <c r="AC16" s="57"/>
     </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="65">
         <v>2.2999999999999998</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="65">
         <v>2.4</v>
       </c>
@@ -2953,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="65">
         <v>2.5</v>
       </c>
@@ -2973,7 +2979,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="65">
         <v>2.6</v>
       </c>
@@ -2993,7 +2999,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="65">
         <v>2.7</v>
       </c>
@@ -3013,7 +3019,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A22" s="64">
         <v>3</v>
       </c>
@@ -3027,7 +3033,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="65">
         <v>3.1</v>
       </c>
@@ -3041,7 +3047,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="65">
         <v>3.2</v>
       </c>
@@ -3055,7 +3061,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="65">
         <v>3.3</v>
       </c>
@@ -3069,7 +3075,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="65">
         <v>3.4</v>
       </c>
@@ -3083,7 +3089,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="65">
         <v>3.5</v>
       </c>
@@ -3097,7 +3103,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="65">
         <v>3.6</v>
       </c>
@@ -3111,7 +3117,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="65">
         <v>3.7</v>
       </c>
@@ -3125,7 +3131,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="65">
         <v>3.8</v>
       </c>
@@ -3139,7 +3145,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="65">
         <v>3.9</v>
       </c>
@@ -3153,7 +3159,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
         <v>110</v>
       </c>
@@ -3167,7 +3173,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="65">
         <v>3.11</v>
       </c>
@@ -3181,7 +3187,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A34" s="64">
         <v>4</v>
       </c>
@@ -3195,7 +3201,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="65">
         <v>4.0999999999999996</v>
       </c>
@@ -3209,7 +3215,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="65">
         <v>4.2</v>
       </c>
@@ -3223,7 +3229,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A37" s="64">
         <v>5</v>
       </c>
@@ -3237,7 +3243,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="65">
         <v>5.0999999999999996</v>
       </c>
@@ -3251,7 +3257,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="65">
         <v>5.2</v>
       </c>
@@ -3265,7 +3271,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A40" s="64">
         <v>6</v>
       </c>
@@ -3279,7 +3285,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="65">
         <v>6.1</v>
       </c>
@@ -3293,7 +3299,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="65">
         <v>6.2</v>
       </c>
@@ -3307,7 +3313,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="65">
         <v>6.3</v>
       </c>
@@ -3321,7 +3327,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="65">
         <v>6.4</v>
       </c>
@@ -3335,7 +3341,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="65">
         <v>6.5</v>
       </c>
@@ -3349,7 +3355,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="65">
         <v>6.6</v>
       </c>
@@ -3363,7 +3369,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="65">
         <v>6.7</v>
       </c>
@@ -3377,7 +3383,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A48" s="64">
         <v>7</v>
       </c>
@@ -3391,7 +3397,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="65">
         <v>7.1</v>
       </c>
@@ -3405,7 +3411,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="65">
         <v>7.2</v>
       </c>
@@ -3419,7 +3425,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="65">
         <v>7.3</v>
       </c>
@@ -3433,7 +3439,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="65">
         <v>7.4</v>
       </c>
@@ -3447,7 +3453,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A53" s="64" t="s">
         <v>127</v>
       </c>
@@ -3461,7 +3467,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
         <v>129</v>
       </c>
@@ -3475,7 +3481,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="65" t="s">
         <v>132</v>
       </c>
@@ -3489,7 +3495,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="65"/>
       <c r="B56" s="62"/>
       <c r="C56" s="58"/>
@@ -3499,7 +3505,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="65"/>
       <c r="B57" s="62"/>
       <c r="C57" s="58"/>
@@ -3509,7 +3515,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="65"/>
       <c r="B58" s="62"/>
       <c r="C58" s="58"/>
@@ -3519,7 +3525,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="65"/>
       <c r="B59" s="62"/>
       <c r="C59" s="58"/>
@@ -3529,7 +3535,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="65"/>
       <c r="B60" s="62"/>
       <c r="C60" s="58"/>
@@ -3539,26 +3545,26 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="41"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="41"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>53</v>
       </c>
@@ -3621,15 +3627,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>15</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3658,14 +3664,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="125.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="125.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>45</v>
       </c>
@@ -3676,7 +3682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="51">
         <v>1.1000000000000001</v>
       </c>
@@ -3685,44 +3691,44 @@
       </c>
       <c r="C3" s="51"/>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="47"/>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="47"/>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
       <c r="B6" s="47"/>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="47"/>
     </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="48"/>
       <c r="B8" s="47"/>
     </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="47"/>
     </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" s="47"/>
     </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="47"/>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="47"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="42"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
     </row>
   </sheetData>

--- a/planner.xlsx
+++ b/planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CF72CF-E532-43AC-A524-138EC7A252C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B814C1-4B2F-421B-829D-E0F3C4D60F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3960" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -1255,14 +1255,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Đầu đề 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Siêu kết nối" xfId="8" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -2153,12 +2153,12 @@
   </sheetPr>
   <dimension ref="A1:BN68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2245,7 +2245,7 @@
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
     </row>
-    <row r="4" spans="1:66" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="32" t="s">
@@ -2267,82 +2267,228 @@
       <c r="J4" s="45">
         <v>43940</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
+      <c r="K4" s="45">
+        <f>J4+1</f>
+        <v>43941</v>
+      </c>
+      <c r="L4" s="45">
+        <f t="shared" ref="L4:BN4" si="0">K4+1</f>
+        <v>43942</v>
+      </c>
+      <c r="M4" s="45">
+        <f t="shared" si="0"/>
+        <v>43943</v>
+      </c>
+      <c r="N4" s="45">
+        <f t="shared" si="0"/>
+        <v>43944</v>
+      </c>
+      <c r="O4" s="45">
+        <f t="shared" si="0"/>
+        <v>43945</v>
+      </c>
+      <c r="P4" s="45">
+        <f t="shared" si="0"/>
+        <v>43946</v>
+      </c>
       <c r="Q4" s="45">
-        <f>J4+7</f>
+        <f t="shared" si="0"/>
         <v>43947</v>
       </c>
-      <c r="R4" s="35"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
+      <c r="R4" s="45">
+        <f t="shared" si="0"/>
+        <v>43948</v>
+      </c>
+      <c r="S4" s="45">
+        <f t="shared" si="0"/>
+        <v>43949</v>
+      </c>
+      <c r="T4" s="45">
+        <f t="shared" si="0"/>
+        <v>43950</v>
+      </c>
+      <c r="U4" s="45">
+        <f t="shared" si="0"/>
+        <v>43951</v>
+      </c>
+      <c r="V4" s="45">
+        <f t="shared" si="0"/>
+        <v>43952</v>
+      </c>
+      <c r="W4" s="45">
+        <f t="shared" si="0"/>
+        <v>43953</v>
+      </c>
       <c r="X4" s="45">
-        <f t="shared" ref="X4" si="0">Q4+7</f>
+        <f t="shared" si="0"/>
         <v>43954</v>
       </c>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="1"/>
+      <c r="Y4" s="45">
+        <f t="shared" si="0"/>
+        <v>43955</v>
+      </c>
+      <c r="Z4" s="45">
+        <f t="shared" si="0"/>
+        <v>43956</v>
+      </c>
+      <c r="AA4" s="45">
+        <f t="shared" si="0"/>
+        <v>43957</v>
+      </c>
+      <c r="AB4" s="45">
+        <f t="shared" si="0"/>
+        <v>43958</v>
+      </c>
+      <c r="AC4" s="45">
+        <f t="shared" si="0"/>
+        <v>43959</v>
+      </c>
+      <c r="AD4" s="45">
+        <f t="shared" si="0"/>
+        <v>43960</v>
+      </c>
       <c r="AE4" s="45">
-        <f t="shared" ref="AE4" si="1">X4+7</f>
+        <f t="shared" si="0"/>
         <v>43961</v>
       </c>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="1"/>
+      <c r="AF4" s="45">
+        <f t="shared" si="0"/>
+        <v>43962</v>
+      </c>
+      <c r="AG4" s="45">
+        <f t="shared" si="0"/>
+        <v>43963</v>
+      </c>
+      <c r="AH4" s="45">
+        <f t="shared" si="0"/>
+        <v>43964</v>
+      </c>
+      <c r="AI4" s="45">
+        <f t="shared" si="0"/>
+        <v>43965</v>
+      </c>
+      <c r="AJ4" s="45">
+        <f t="shared" si="0"/>
+        <v>43966</v>
+      </c>
+      <c r="AK4" s="45">
+        <f t="shared" si="0"/>
+        <v>43967</v>
+      </c>
       <c r="AL4" s="45">
-        <f t="shared" ref="AL4" si="2">AE4+7</f>
+        <f t="shared" si="0"/>
         <v>43968</v>
       </c>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="1"/>
+      <c r="AM4" s="45">
+        <f t="shared" si="0"/>
+        <v>43969</v>
+      </c>
+      <c r="AN4" s="45">
+        <f t="shared" si="0"/>
+        <v>43970</v>
+      </c>
+      <c r="AO4" s="45">
+        <f t="shared" si="0"/>
+        <v>43971</v>
+      </c>
+      <c r="AP4" s="45">
+        <f t="shared" si="0"/>
+        <v>43972</v>
+      </c>
+      <c r="AQ4" s="45">
+        <f t="shared" si="0"/>
+        <v>43973</v>
+      </c>
+      <c r="AR4" s="45">
+        <f t="shared" si="0"/>
+        <v>43974</v>
+      </c>
       <c r="AS4" s="45">
-        <f t="shared" ref="AS4" si="3">AL4+7</f>
+        <f t="shared" si="0"/>
         <v>43975</v>
       </c>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="1"/>
+      <c r="AT4" s="45">
+        <f t="shared" si="0"/>
+        <v>43976</v>
+      </c>
+      <c r="AU4" s="45">
+        <f t="shared" si="0"/>
+        <v>43977</v>
+      </c>
+      <c r="AV4" s="45">
+        <f t="shared" si="0"/>
+        <v>43978</v>
+      </c>
+      <c r="AW4" s="45">
+        <f t="shared" si="0"/>
+        <v>43979</v>
+      </c>
+      <c r="AX4" s="45">
+        <f t="shared" si="0"/>
+        <v>43980</v>
+      </c>
+      <c r="AY4" s="45">
+        <f t="shared" si="0"/>
+        <v>43981</v>
+      </c>
       <c r="AZ4" s="45">
-        <f t="shared" ref="AZ4" si="4">AS4+7</f>
+        <f t="shared" si="0"/>
         <v>43982</v>
       </c>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="1"/>
+      <c r="BA4" s="45">
+        <f t="shared" si="0"/>
+        <v>43983</v>
+      </c>
+      <c r="BB4" s="45">
+        <f t="shared" si="0"/>
+        <v>43984</v>
+      </c>
+      <c r="BC4" s="45">
+        <f t="shared" si="0"/>
+        <v>43985</v>
+      </c>
+      <c r="BD4" s="45">
+        <f t="shared" si="0"/>
+        <v>43986</v>
+      </c>
+      <c r="BE4" s="45">
+        <f t="shared" si="0"/>
+        <v>43987</v>
+      </c>
+      <c r="BF4" s="45">
+        <f t="shared" si="0"/>
+        <v>43988</v>
+      </c>
       <c r="BG4" s="45">
-        <f t="shared" ref="BG4" si="5">AZ4+7</f>
+        <f t="shared" si="0"/>
         <v>43989</v>
       </c>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="36"/>
-      <c r="BJ4" s="36"/>
-      <c r="BK4" s="36"/>
-      <c r="BL4" s="36"/>
-      <c r="BM4" s="1"/>
+      <c r="BH4" s="45">
+        <f t="shared" si="0"/>
+        <v>43990</v>
+      </c>
+      <c r="BI4" s="45">
+        <f t="shared" si="0"/>
+        <v>43991</v>
+      </c>
+      <c r="BJ4" s="45">
+        <f t="shared" si="0"/>
+        <v>43992</v>
+      </c>
+      <c r="BK4" s="45">
+        <f t="shared" si="0"/>
+        <v>43993</v>
+      </c>
+      <c r="BL4" s="45">
+        <f t="shared" si="0"/>
+        <v>43994</v>
+      </c>
+      <c r="BM4" s="45">
+        <f t="shared" si="0"/>
+        <v>43995</v>
+      </c>
       <c r="BN4" s="45">
-        <f t="shared" ref="BN4" si="6">BG4+7</f>
+        <f t="shared" si="0"/>
         <v>43996</v>
       </c>
     </row>
@@ -2722,10 +2868,10 @@
         <v>2</v>
       </c>
       <c r="G9" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H9" s="15">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
@@ -2748,7 +2894,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H10" s="15">
         <v>0.5</v>

--- a/planner.xlsx
+++ b/planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B814C1-4B2F-421B-829D-E0F3C4D60F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AC243D-BB4B-4F8A-99D6-BE53BF65299A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1255,14 +1253,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Bình thường" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Đầu đề 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Siêu kết nối" xfId="8" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1500,15 +1498,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>68580</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1796,16 +1794,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="52.125" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
         <v>14</v>
       </c>
@@ -1817,7 +1815,7 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1827,7 +1825,7 @@
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1837,7 +1835,7 @@
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>32</v>
       </c>
@@ -1845,7 +1843,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
@@ -1853,7 +1851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>55</v>
       </c>
@@ -1861,7 +1859,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
@@ -1878,7 +1876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +1887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>18</v>
       </c>
@@ -1900,7 +1898,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
         <v>19</v>
       </c>
@@ -1910,7 +1908,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>20</v>
       </c>
@@ -1919,7 +1917,7 @@
       </c>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
         <v>21</v>
       </c>
@@ -1927,7 +1925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
@@ -1955,15 +1953,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
         <v>34</v>
       </c>
@@ -1973,7 +1971,7 @@
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1981,7 +1979,7 @@
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
     </row>
-    <row r="3" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1989,7 +1987,7 @@
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
         <v>35</v>
       </c>
@@ -1997,10 +1995,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
@@ -2014,7 +2012,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="17"/>
       <c r="C7" s="67" t="s">
         <v>99</v>
@@ -2026,7 +2024,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="67" t="s">
         <v>100</v>
@@ -2038,7 +2036,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
       <c r="C9" s="67" t="s">
         <v>101</v>
@@ -2050,7 +2048,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="C10" s="67" t="s">
         <v>102</v>
@@ -2062,16 +2060,16 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="67"/>
       <c r="D11" s="68"/>
       <c r="E11" s="67"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>37</v>
       </c>
@@ -2082,7 +2080,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>38</v>
       </c>
@@ -2091,41 +2089,41 @@
       </c>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
       <c r="C15" s="28"/>
     </row>
-    <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.3">
       <c r="C21" s="50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C22" s="46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C23" s="46" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C24" s="46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C25" s="46" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C27" s="54" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C28" s="54" t="s">
         <v>97</v>
       </c>
@@ -2158,25 +2156,25 @@
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="41.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="40" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="4.125" style="1" customWidth="1"/>
-    <col min="10" max="29" width="7.625" style="1" customWidth="1"/>
-    <col min="30" max="66" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="1" customWidth="1"/>
+    <col min="10" max="29" width="7.6640625" style="1" customWidth="1"/>
+    <col min="30" max="66" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2185,7 @@
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
     </row>
-    <row r="2" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -2231,7 +2229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:66" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
@@ -2245,7 +2243,7 @@
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
     </row>
-    <row r="4" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="32" t="s">
@@ -2492,7 +2490,7 @@
         <v>43996</v>
       </c>
     </row>
-    <row r="5" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>45</v>
       </c>
@@ -2578,7 +2576,7 @@
       <c r="BM5" s="36"/>
       <c r="BN5" s="37"/>
     </row>
-    <row r="6" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:66" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38" t="s">
@@ -2767,7 +2765,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="59"/>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
@@ -2834,7 +2832,7 @@
       <c r="BM7" s="3"/>
       <c r="BN7" s="3"/>
     </row>
-    <row r="8" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A8" s="64">
         <v>1</v>
       </c>
@@ -2848,7 +2846,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="65">
         <v>1.1000000000000001</v>
       </c>
@@ -2874,7 +2872,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A10" s="65">
         <v>1.2</v>
       </c>
@@ -2900,7 +2898,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A11" s="65">
         <v>1.3</v>
       </c>
@@ -2916,11 +2914,17 @@
       <c r="E11" s="14">
         <v>14</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="F11" s="14">
+        <v>6</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A12" s="65">
         <v>1.4</v>
       </c>
@@ -2946,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A13" s="65">
         <v>1.5</v>
       </c>
@@ -2972,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A14" s="64">
         <v>2</v>
       </c>
@@ -2986,7 +2990,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A15" s="65">
         <v>2.1</v>
       </c>
@@ -3012,7 +3016,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:66" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="66">
         <v>2.2000000000000002</v>
       </c>
@@ -3053,7 +3057,7 @@
       <c r="AB16" s="57"/>
       <c r="AC16" s="57"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="65">
         <v>2.2999999999999998</v>
       </c>
@@ -3079,7 +3083,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="65">
         <v>2.4</v>
       </c>
@@ -3105,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="65">
         <v>2.5</v>
       </c>
@@ -3125,7 +3129,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="65">
         <v>2.6</v>
       </c>
@@ -3145,7 +3149,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="65">
         <v>2.7</v>
       </c>
@@ -3165,7 +3169,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A22" s="64">
         <v>3</v>
       </c>
@@ -3179,7 +3183,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="65">
         <v>3.1</v>
       </c>
@@ -3193,7 +3197,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="65">
         <v>3.2</v>
       </c>
@@ -3207,7 +3211,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="65">
         <v>3.3</v>
       </c>
@@ -3221,7 +3225,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="65">
         <v>3.4</v>
       </c>
@@ -3235,7 +3239,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="65">
         <v>3.5</v>
       </c>
@@ -3249,7 +3253,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="65">
         <v>3.6</v>
       </c>
@@ -3263,7 +3267,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="65">
         <v>3.7</v>
       </c>
@@ -3277,7 +3281,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="65">
         <v>3.8</v>
       </c>
@@ -3291,7 +3295,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="65">
         <v>3.9</v>
       </c>
@@ -3305,7 +3309,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="65" t="s">
         <v>110</v>
       </c>
@@ -3319,7 +3323,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="65">
         <v>3.11</v>
       </c>
@@ -3333,7 +3337,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A34" s="64">
         <v>4</v>
       </c>
@@ -3347,7 +3351,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="65">
         <v>4.0999999999999996</v>
       </c>
@@ -3361,7 +3365,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="65">
         <v>4.2</v>
       </c>
@@ -3375,7 +3379,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A37" s="64">
         <v>5</v>
       </c>
@@ -3389,7 +3393,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="65">
         <v>5.0999999999999996</v>
       </c>
@@ -3403,7 +3407,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="65">
         <v>5.2</v>
       </c>
@@ -3417,7 +3421,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A40" s="64">
         <v>6</v>
       </c>
@@ -3431,7 +3435,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="65">
         <v>6.1</v>
       </c>
@@ -3445,7 +3449,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="65">
         <v>6.2</v>
       </c>
@@ -3459,7 +3463,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="65">
         <v>6.3</v>
       </c>
@@ -3473,7 +3477,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="65">
         <v>6.4</v>
       </c>
@@ -3487,7 +3491,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="65">
         <v>6.5</v>
       </c>
@@ -3501,7 +3505,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="65">
         <v>6.6</v>
       </c>
@@ -3515,7 +3519,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="65">
         <v>6.7</v>
       </c>
@@ -3529,7 +3533,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A48" s="64">
         <v>7</v>
       </c>
@@ -3543,7 +3547,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="65">
         <v>7.1</v>
       </c>
@@ -3557,7 +3561,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="65">
         <v>7.2</v>
       </c>
@@ -3571,7 +3575,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="65">
         <v>7.3</v>
       </c>
@@ -3585,7 +3589,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="65">
         <v>7.4</v>
       </c>
@@ -3599,7 +3603,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A53" s="64" t="s">
         <v>127</v>
       </c>
@@ -3613,7 +3617,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="65" t="s">
         <v>129</v>
       </c>
@@ -3627,7 +3631,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="65" t="s">
         <v>132</v>
       </c>
@@ -3641,7 +3645,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="65"/>
       <c r="B56" s="62"/>
       <c r="C56" s="58"/>
@@ -3651,7 +3655,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="65"/>
       <c r="B57" s="62"/>
       <c r="C57" s="58"/>
@@ -3661,7 +3665,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="65"/>
       <c r="B58" s="62"/>
       <c r="C58" s="58"/>
@@ -3671,7 +3675,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="65"/>
       <c r="B59" s="62"/>
       <c r="C59" s="58"/>
@@ -3681,7 +3685,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="65"/>
       <c r="B60" s="62"/>
       <c r="C60" s="58"/>
@@ -3691,26 +3695,26 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="41"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="41"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="41"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="2" t="s">
         <v>53</v>
       </c>
@@ -3773,15 +3777,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>68580</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>15</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3810,14 +3814,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="125.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.5" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="125.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>45</v>
       </c>
@@ -3828,7 +3832,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="51">
         <v>1.1000000000000001</v>
       </c>
@@ -3837,44 +3841,44 @@
       </c>
       <c r="C3" s="51"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="47"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="47"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="48"/>
       <c r="B6" s="47"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="47"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="48"/>
       <c r="B8" s="47"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="47"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="48"/>
       <c r="B10" s="47"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="48"/>
       <c r="B11" s="47"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="48"/>
       <c r="B12" s="47"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="42"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
     </row>
   </sheetData>

--- a/planner.xlsx
+++ b/planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AC243D-BB4B-4F8A-99D6-BE53BF65299A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7E305F-1C1D-4ED8-8262-13A77B846A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1253,14 +1255,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Đầu đề 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Siêu kết nối" xfId="8" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1498,15 +1500,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1794,16 +1796,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="52.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="52.125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>14</v>
       </c>
@@ -1815,7 +1817,7 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1825,7 +1827,7 @@
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1835,7 +1837,7 @@
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>32</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
@@ -1851,7 +1853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>55</v>
       </c>
@@ -1859,7 +1861,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
@@ -1876,7 +1878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>17</v>
       </c>
@@ -1887,7 +1889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
         <v>18</v>
       </c>
@@ -1898,7 +1900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
         <v>19</v>
       </c>
@@ -1908,7 +1910,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
         <v>20</v>
       </c>
@@ -1917,7 +1919,7 @@
       </c>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
         <v>21</v>
       </c>
@@ -1925,7 +1927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
@@ -1953,15 +1955,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>34</v>
       </c>
@@ -1971,7 +1973,7 @@
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1979,7 +1981,7 @@
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
     </row>
-    <row r="3" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1987,7 +1989,7 @@
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>35</v>
       </c>
@@ -1995,10 +1997,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
@@ -2012,7 +2014,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="C7" s="67" t="s">
         <v>99</v>
@@ -2024,7 +2026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="C8" s="67" t="s">
         <v>100</v>
@@ -2036,7 +2038,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="67" t="s">
         <v>101</v>
@@ -2048,7 +2050,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="C10" s="67" t="s">
         <v>102</v>
@@ -2060,16 +2062,16 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="C11" s="67"/>
       <c r="D11" s="68"/>
       <c r="E11" s="67"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>37</v>
       </c>
@@ -2080,7 +2082,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>38</v>
       </c>
@@ -2089,41 +2091,41 @@
       </c>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="28"/>
     </row>
-    <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.25">
       <c r="C21" s="50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="46" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="46" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C27" s="54" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C28" s="54" t="s">
         <v>97</v>
       </c>
@@ -2156,25 +2158,25 @@
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="41.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="4.109375" style="1" customWidth="1"/>
-    <col min="10" max="29" width="7.6640625" style="1" customWidth="1"/>
-    <col min="30" max="66" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="1" customWidth="1"/>
+    <col min="10" max="29" width="7.625" style="1" customWidth="1"/>
+    <col min="30" max="66" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
@@ -2185,7 +2187,7 @@
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
     </row>
-    <row r="2" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -2229,7 +2231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:66" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
@@ -2243,7 +2245,7 @@
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
     </row>
-    <row r="4" spans="1:66" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="32" t="s">
@@ -2490,7 +2492,7 @@
         <v>43996</v>
       </c>
     </row>
-    <row r="5" spans="1:66" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>45</v>
       </c>
@@ -2576,7 +2578,7 @@
       <c r="BM5" s="36"/>
       <c r="BN5" s="37"/>
     </row>
-    <row r="6" spans="1:66" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38" t="s">
@@ -2765,7 +2767,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:66" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="59"/>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
@@ -2832,7 +2834,7 @@
       <c r="BM7" s="3"/>
       <c r="BN7" s="3"/>
     </row>
-    <row r="8" spans="1:66" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="64">
         <v>1</v>
       </c>
@@ -2846,7 +2848,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:66" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" s="65">
         <v>1.1000000000000001</v>
       </c>
@@ -2866,13 +2868,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" s="65">
         <v>1.2</v>
       </c>
@@ -2892,13 +2894,13 @@
         <v>2</v>
       </c>
       <c r="G10" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" s="15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11" s="65">
         <v>1.3</v>
       </c>
@@ -2924,7 +2926,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" s="65">
         <v>1.4</v>
       </c>
@@ -2950,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" s="65">
         <v>1.5</v>
       </c>
@@ -2976,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:66" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A14" s="64">
         <v>2</v>
       </c>
@@ -2990,7 +2992,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" s="65">
         <v>2.1</v>
       </c>
@@ -3016,7 +3018,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:66" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:66" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66">
         <v>2.2000000000000002</v>
       </c>
@@ -3057,7 +3059,7 @@
       <c r="AB16" s="57"/>
       <c r="AC16" s="57"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="65">
         <v>2.2999999999999998</v>
       </c>
@@ -3083,7 +3085,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="65">
         <v>2.4</v>
       </c>
@@ -3109,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="65">
         <v>2.5</v>
       </c>
@@ -3129,7 +3131,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="65">
         <v>2.6</v>
       </c>
@@ -3149,7 +3151,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="65">
         <v>2.7</v>
       </c>
@@ -3169,7 +3171,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A22" s="64">
         <v>3</v>
       </c>
@@ -3183,7 +3185,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="65">
         <v>3.1</v>
       </c>
@@ -3197,7 +3199,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="65">
         <v>3.2</v>
       </c>
@@ -3211,7 +3213,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="65">
         <v>3.3</v>
       </c>
@@ -3225,7 +3227,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="65">
         <v>3.4</v>
       </c>
@@ -3239,7 +3241,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="65">
         <v>3.5</v>
       </c>
@@ -3253,7 +3255,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="65">
         <v>3.6</v>
       </c>
@@ -3267,7 +3269,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="65">
         <v>3.7</v>
       </c>
@@ -3281,7 +3283,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="65">
         <v>3.8</v>
       </c>
@@ -3295,7 +3297,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="65">
         <v>3.9</v>
       </c>
@@ -3309,7 +3311,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
         <v>110</v>
       </c>
@@ -3323,7 +3325,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="65">
         <v>3.11</v>
       </c>
@@ -3337,7 +3339,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A34" s="64">
         <v>4</v>
       </c>
@@ -3351,7 +3353,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="65">
         <v>4.0999999999999996</v>
       </c>
@@ -3365,7 +3367,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="65">
         <v>4.2</v>
       </c>
@@ -3379,7 +3381,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A37" s="64">
         <v>5</v>
       </c>
@@ -3393,7 +3395,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="65">
         <v>5.0999999999999996</v>
       </c>
@@ -3407,7 +3409,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="65">
         <v>5.2</v>
       </c>
@@ -3421,7 +3423,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A40" s="64">
         <v>6</v>
       </c>
@@ -3435,7 +3437,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="65">
         <v>6.1</v>
       </c>
@@ -3449,7 +3451,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="65">
         <v>6.2</v>
       </c>
@@ -3463,7 +3465,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="65">
         <v>6.3</v>
       </c>
@@ -3477,7 +3479,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="65">
         <v>6.4</v>
       </c>
@@ -3491,7 +3493,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="65">
         <v>6.5</v>
       </c>
@@ -3505,7 +3507,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="65">
         <v>6.6</v>
       </c>
@@ -3519,7 +3521,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="65">
         <v>6.7</v>
       </c>
@@ -3533,7 +3535,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A48" s="64">
         <v>7</v>
       </c>
@@ -3547,7 +3549,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="65">
         <v>7.1</v>
       </c>
@@ -3561,7 +3563,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="65">
         <v>7.2</v>
       </c>
@@ -3575,7 +3577,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="65">
         <v>7.3</v>
       </c>
@@ -3589,7 +3591,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="65">
         <v>7.4</v>
       </c>
@@ -3603,7 +3605,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A53" s="64" t="s">
         <v>127</v>
       </c>
@@ -3617,7 +3619,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
         <v>129</v>
       </c>
@@ -3631,7 +3633,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="65" t="s">
         <v>132</v>
       </c>
@@ -3645,7 +3647,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="65"/>
       <c r="B56" s="62"/>
       <c r="C56" s="58"/>
@@ -3655,7 +3657,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="65"/>
       <c r="B57" s="62"/>
       <c r="C57" s="58"/>
@@ -3665,7 +3667,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="65"/>
       <c r="B58" s="62"/>
       <c r="C58" s="58"/>
@@ -3675,7 +3677,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="65"/>
       <c r="B59" s="62"/>
       <c r="C59" s="58"/>
@@ -3685,7 +3687,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="65"/>
       <c r="B60" s="62"/>
       <c r="C60" s="58"/>
@@ -3695,26 +3697,26 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="41"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="41"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>53</v>
       </c>
@@ -3777,15 +3779,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>15</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3814,14 +3816,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="125.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="125.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>45</v>
       </c>
@@ -3832,7 +3834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="51">
         <v>1.1000000000000001</v>
       </c>
@@ -3841,44 +3843,44 @@
       </c>
       <c r="C3" s="51"/>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="47"/>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="47"/>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
       <c r="B6" s="47"/>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="47"/>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="48"/>
       <c r="B8" s="47"/>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="47"/>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" s="47"/>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="47"/>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="47"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="42"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
     </row>
   </sheetData>

--- a/planner.xlsx
+++ b/planner.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7E305F-1C1D-4ED8-8262-13A77B846A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D18CF2-065D-114D-8D4F-34F08C2EE556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -1255,14 +1255,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Bình thường" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Đầu đề 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Siêu kết nối" xfId="8" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1500,15 +1500,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1796,16 +1796,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="52.125" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
         <v>14</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1827,7 +1827,7 @@
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1837,7 +1837,7 @@
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>32</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>55</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="23" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="23" t="s">
         <v>18</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
         <v>19</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="23" t="s">
         <v>20</v>
       </c>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
         <v>21</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
@@ -1955,15 +1955,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
         <v>34</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1981,7 +1981,7 @@
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
     </row>
-    <row r="3" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1989,7 +1989,7 @@
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>35</v>
       </c>
@@ -1997,10 +1997,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="17"/>
       <c r="C7" s="67" t="s">
         <v>99</v>
@@ -2026,7 +2026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
       <c r="C8" s="67" t="s">
         <v>100</v>
@@ -2038,7 +2038,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="17"/>
       <c r="C9" s="67" t="s">
         <v>101</v>
@@ -2050,7 +2050,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="17"/>
       <c r="C10" s="67" t="s">
         <v>102</v>
@@ -2062,16 +2062,16 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="17"/>
       <c r="C11" s="67"/>
       <c r="D11" s="68"/>
       <c r="E11" s="67"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="17"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="s">
         <v>37</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>38</v>
       </c>
@@ -2091,41 +2091,41 @@
       </c>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="17"/>
       <c r="C15" s="28"/>
     </row>
-    <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.2">
       <c r="C21" s="50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C22" s="46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C23" s="46" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C24" s="46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="46" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" ht="29" x14ac:dyDescent="0.2">
       <c r="C27" s="54" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" ht="29" x14ac:dyDescent="0.2">
       <c r="C28" s="54" t="s">
         <v>97</v>
       </c>
@@ -2154,29 +2154,29 @@
   <dimension ref="A1:BN68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="41.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="4.125" style="1" customWidth="1"/>
-    <col min="10" max="29" width="7.625" style="1" customWidth="1"/>
-    <col min="30" max="66" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
+    <col min="10" max="29" width="7.6640625" style="1" customWidth="1"/>
+    <col min="30" max="66" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
     </row>
-    <row r="2" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -2231,7 +2231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:66" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
@@ -2834,7 +2834,7 @@
       <c r="BM7" s="3"/>
       <c r="BN7" s="3"/>
     </row>
-    <row r="8" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" s="64">
         <v>1</v>
       </c>
@@ -2848,7 +2848,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="65">
         <v>1.1000000000000001</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="65">
         <v>1.2</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="65">
         <v>1.3</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="65">
         <v>1.4</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="65">
         <v>1.5</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14" s="64">
         <v>2</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="65">
         <v>2.1</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:66" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="66">
         <v>2.2000000000000002</v>
       </c>
@@ -3059,7 +3059,7 @@
       <c r="AB16" s="57"/>
       <c r="AC16" s="57"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="65">
         <v>2.2999999999999998</v>
       </c>
@@ -3079,13 +3079,13 @@
         <v>2</v>
       </c>
       <c r="G17" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H17" s="15">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="65">
         <v>2.4</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="65">
         <v>2.5</v>
       </c>
@@ -3131,7 +3131,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="65">
         <v>2.6</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="65">
         <v>2.7</v>
       </c>
@@ -3171,7 +3171,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="64">
         <v>3</v>
       </c>
@@ -3185,7 +3185,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="65">
         <v>3.1</v>
       </c>
@@ -3199,7 +3199,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="65">
         <v>3.2</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="65">
         <v>3.3</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="65">
         <v>3.4</v>
       </c>
@@ -3241,7 +3241,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="65">
         <v>3.5</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="65">
         <v>3.6</v>
       </c>
@@ -3269,7 +3269,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="65">
         <v>3.7</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="65">
         <v>3.8</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="65">
         <v>3.9</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="65" t="s">
         <v>110</v>
       </c>
@@ -3325,7 +3325,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="65">
         <v>3.11</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="64">
         <v>4</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="65">
         <v>4.0999999999999996</v>
       </c>
@@ -3367,7 +3367,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="65">
         <v>4.2</v>
       </c>
@@ -3381,7 +3381,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="64">
         <v>5</v>
       </c>
@@ -3395,7 +3395,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="65">
         <v>5.0999999999999996</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="65">
         <v>5.2</v>
       </c>
@@ -3423,7 +3423,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="64">
         <v>6</v>
       </c>
@@ -3437,7 +3437,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="65">
         <v>6.1</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="65">
         <v>6.2</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="65">
         <v>6.3</v>
       </c>
@@ -3479,7 +3479,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="65">
         <v>6.4</v>
       </c>
@@ -3493,7 +3493,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="65">
         <v>6.5</v>
       </c>
@@ -3507,7 +3507,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="65">
         <v>6.6</v>
       </c>
@@ -3521,7 +3521,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="65">
         <v>6.7</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="64">
         <v>7</v>
       </c>
@@ -3549,7 +3549,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="65">
         <v>7.1</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="65">
         <v>7.2</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="65">
         <v>7.3</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="65">
         <v>7.4</v>
       </c>
@@ -3605,7 +3605,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="64" t="s">
         <v>127</v>
       </c>
@@ -3619,7 +3619,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="65" t="s">
         <v>129</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="65" t="s">
         <v>132</v>
       </c>
@@ -3647,7 +3647,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="65"/>
       <c r="B56" s="62"/>
       <c r="C56" s="58"/>
@@ -3657,7 +3657,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="65"/>
       <c r="B57" s="62"/>
       <c r="C57" s="58"/>
@@ -3667,7 +3667,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="65"/>
       <c r="B58" s="62"/>
       <c r="C58" s="58"/>
@@ -3677,7 +3677,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="65"/>
       <c r="B59" s="62"/>
       <c r="C59" s="58"/>
@@ -3687,7 +3687,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="65"/>
       <c r="B60" s="62"/>
       <c r="C60" s="58"/>
@@ -3697,26 +3697,26 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>53</v>
       </c>
@@ -3779,15 +3779,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>15</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3816,14 +3816,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="125.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="125.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>45</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="51">
         <v>1.1000000000000001</v>
       </c>
@@ -3843,44 +3843,44 @@
       </c>
       <c r="C3" s="51"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="47"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="47"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="47"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="47"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
       <c r="B8" s="47"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="47"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="47"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="47"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="47"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="42"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
     </row>
   </sheetData>

--- a/planner.xlsx
+++ b/planner.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22821"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D18CF2-065D-114D-8D4F-34F08C2EE556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{65D18CF2-065D-114D-8D4F-34F08C2EE556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4495EFCB-5A8B-46C7-BF2B-DB12DADBA3D5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="PeriodInPlan">ProjFunctions!A$6=MEDIAN(ProjFunctions!A$6,ProjFunctions!$D1,ProjFunctions!$D1+ProjFunctions!$E1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*(ProjFunctions!$D1&gt;0)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,34 +44,270 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="134">
   <si>
+    <t>Project Planner Guide</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Project Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Hiển thị thông tin Project</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">Sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Project Function:</t>
+    </r>
+  </si>
+  <si>
+    <t>Hiển thị lịch phân công tổng quan theo các chức năng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Note Details</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Giải thích những chức năng, thảo luận…</t>
+  </si>
+  <si>
+    <t>Trong mỗi Sheet:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activities = </t>
+  </si>
+  <si>
+    <t>Tên công việc / chức năng sẽ thực hiện (copy từ checklist có kèm mã thứ tự)</t>
+  </si>
+  <si>
+    <t>Lưu ý:</t>
+  </si>
+  <si>
+    <t>- Không làm thay đổi format của mỗi sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member = </t>
+  </si>
+  <si>
+    <t>Tên của thành viên được phân công</t>
+  </si>
+  <si>
+    <t>- Nếu cần thì chèn dòng / cột vào giữa các dòng / cột có sẵn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan start = </t>
+  </si>
+  <si>
+    <t>Số thứ tự Ngày dự kiến bắt đầu (tính theo ngày bắt đầu dự án)</t>
+  </si>
+  <si>
+    <t>- Phần ngày tháng trên plan (hiển thị theo d/m. Nhưng nhập theo m/d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan duration = </t>
+  </si>
+  <si>
+    <t>Số lượng ngày dự kiến hoàn thành công việc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual start = </t>
+  </si>
+  <si>
+    <t>Số thứ tự Ngày thực sự bắt đầu (tính theo ngày bắt đầu dự án)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual duration = </t>
+  </si>
+  <si>
+    <t>Số lượng ngày thực sự hoàn thành công việc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent complete = </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phần trăm đánh giá của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Cá nhân</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> cho công việc. Mặc định công việc chưa hoàn thành thì ghi 0%</t>
+    </r>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Team Name:</t>
+  </si>
+  <si>
+    <t>gulugulu</t>
+  </si>
+  <si>
+    <t>Member List:</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>GitHub username</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Khau Dang Nhat Minh</t>
+  </si>
+  <si>
+    <t>kdnminh-wolfris</t>
+  </si>
+  <si>
+    <t>19125011</t>
+  </si>
+  <si>
+    <t>Nguyen Quoc Khanh Tuyen</t>
+  </si>
+  <si>
+    <t>peternguyen39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19125073 </t>
+  </si>
+  <si>
+    <t>Nguyen Khanh Nguyen</t>
+  </si>
+  <si>
+    <t>nknguyen19</t>
+  </si>
+  <si>
+    <t>19125109</t>
+  </si>
+  <si>
+    <t>Nguyen Thieu Khang</t>
+  </si>
+  <si>
+    <t>nguyenthieukhang</t>
+  </si>
+  <si>
+    <t>19125051</t>
+  </si>
+  <si>
+    <t>Project ID:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS162FinalProject </t>
+  </si>
+  <si>
+    <t>Project Name:</t>
+  </si>
+  <si>
+    <t>Student management system</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data must be stored in file. You can define your own format but it must store all the information as described above. </t>
+  </si>
+  <si>
+    <t>Be sure that, if I delete a csv file after importing, there is no harm to your system.</t>
+  </si>
+  <si>
+    <t>Hash password (optional). Tip: SHA1, SHA256…</t>
+  </si>
+  <si>
+    <t>Dùng mảng động, không dùng vector</t>
+  </si>
+  <si>
+    <t>Có thể dùng string thay vì char*</t>
+  </si>
+  <si>
     <t>Project Planner</t>
   </si>
   <si>
+    <t xml:space="preserve"> Period Highlight:</t>
+  </si>
+  <si>
     <t>Plan</t>
   </si>
   <si>
     <t>Actual</t>
-  </si>
-  <si>
-    <t>PLAN</t>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>DURATION</t>
-  </si>
-  <si>
-    <t>ACTUAL</t>
-  </si>
-  <si>
-    <t>PERCENT</t>
-  </si>
-  <si>
-    <t>COMPLETE</t>
-  </si>
-  <si>
-    <t>PERIODS</t>
   </si>
   <si>
     <r>
@@ -155,169 +391,208 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Period Highlight:</t>
-  </si>
-  <si>
-    <t>Project Planner Guide</t>
-  </si>
-  <si>
-    <t>Trong mỗi Sheet:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activities = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan start = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan duration = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual start = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual duration = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent complete = </t>
-  </si>
-  <si>
-    <t>Số thứ tự Ngày dự kiến bắt đầu (tính theo ngày bắt đầu dự án)</t>
-  </si>
-  <si>
-    <t>Số thứ tự Ngày thực sự bắt đầu (tính theo ngày bắt đầu dự án)</t>
-  </si>
-  <si>
-    <t>Số lượng ngày thực sự hoàn thành công việc</t>
-  </si>
-  <si>
-    <t>Số lượng ngày dự kiến hoàn thành công việc</t>
-  </si>
-  <si>
-    <t>Lưu ý:</t>
-  </si>
-  <si>
-    <t>Tên công việc / chức năng sẽ thực hiện (copy từ checklist có kèm mã thứ tự)</t>
-  </si>
-  <si>
-    <t>- Không làm thay đổi format của mỗi sheet</t>
-  </si>
-  <si>
-    <t>- Nếu cần thì chèn dòng / cột vào giữa các dòng / cột có sẵn</t>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>ACTUAL</t>
+  </si>
+  <si>
+    <t>PERCENT</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Activity</t>
   </si>
   <si>
     <t>Member</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sheet </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Project Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">Sheet </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Project Function:</t>
-    </r>
-  </si>
-  <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Team Name:</t>
-  </si>
-  <si>
-    <t>Member List:</t>
-  </si>
-  <si>
-    <t>Project ID:</t>
-  </si>
-  <si>
-    <t>Project Name:</t>
-  </si>
-  <si>
-    <t>- Phần ngày tháng trên plan (hiển thị theo d/m. Nhưng nhập theo m/d)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Phần trăm đánh giá của </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Cá nhân</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> cho công việc. Mặc định công việc chưa hoàn thành thì ghi 0%</t>
-    </r>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Hiển thị lịch phân công tổng quan theo các chức năng</t>
-  </si>
-  <si>
-    <t>Tên của thành viên được phân công</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Code</t>
+    <t>START</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
+  </si>
+  <si>
+    <t>PERIODS</t>
+  </si>
+  <si>
+    <t>(day)</t>
+  </si>
+  <si>
+    <t>(count)</t>
+  </si>
+  <si>
+    <t>All roles</t>
+  </si>
+  <si>
+    <t>Login (3 role: Academic Staff, Lecturer, Student)</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>Show menu</t>
+  </si>
+  <si>
+    <t>View profile info</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Academic staff-Class</t>
+  </si>
+  <si>
+    <t>Import students of a class from a csv file. </t>
+  </si>
+  <si>
+    <t>Tuyen</t>
+  </si>
+  <si>
+    <t>Manually add a new student to a class. </t>
+  </si>
+  <si>
+    <t>Edit an existing student.</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>Remove a student.</t>
+  </si>
+  <si>
+    <t>Change students from class A to class B</t>
+  </si>
+  <si>
+    <t>Khang</t>
+  </si>
+  <si>
+    <t>View list of classes.</t>
+  </si>
+  <si>
+    <t>View list of students in a class.</t>
+  </si>
+  <si>
+    <t>Academic staff-Course</t>
+  </si>
+  <si>
+    <t>Create / update / delete / view academic years (2018-2019), and semesters (Fall).</t>
+  </si>
+  <si>
+    <t>From a semester, import courses from a csv file. </t>
+  </si>
+  <si>
+    <t>Manually add a new course.</t>
+  </si>
+  <si>
+    <t>Edit an existing course.</t>
+  </si>
+  <si>
+    <t>Remove a course.</t>
+  </si>
+  <si>
+    <t>Remove a specific student from a course.</t>
+  </si>
+  <si>
+    <t>Add a specific student to a course.</t>
+  </si>
+  <si>
+    <t>View list of courses in the current semester.</t>
+  </si>
+  <si>
+    <t>View list of students of a course.</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>View attendance list of a course.</t>
+  </si>
+  <si>
+    <t>Create / update / delete / view all lecturers.</t>
+  </si>
+  <si>
+    <t>Academic staff-Score board</t>
+  </si>
+  <si>
+    <t>Search and view the scoreboard of a course.</t>
+  </si>
+  <si>
+    <t>Export a scoreboard to a csv file.</t>
+  </si>
+  <si>
+    <t>Academic staff-Attendance list</t>
+  </si>
+  <si>
+    <t>Search and view attendance list of a course.</t>
+  </si>
+  <si>
+    <t>Export a attendance list to a csv file.</t>
+  </si>
+  <si>
+    <t>Lecturer</t>
+  </si>
+  <si>
+    <t>Edit an attendance.</t>
+  </si>
+  <si>
+    <t>Import scoreboard of a course (midterm, final, lab, bonus) from a csv file.</t>
+  </si>
+  <si>
+    <t>Edit grade of a student</t>
+  </si>
+  <si>
+    <t>View a scoreboard</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Check-in (1 tuần học/checkin 1 buổi) trong 11 tuần</t>
+  </si>
+  <si>
+    <t>View check-in result.</t>
+  </si>
+  <si>
+    <t>View schedules.</t>
+  </si>
+  <si>
+    <t>View his/her scores of a course.</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Additional Functions</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>Hash password</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Plan Start là số thứ tự của ngày bắt đầu. Ví dụ bắt đàu từ ngày thứ 2 tức là ngày 7 Apr 202</t>
+  </si>
+  <si>
+    <t>Plan duration là làm trong bao nhiêu ngày…</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>Description</t>
@@ -326,282 +601,7 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Student management system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS162FinalProject </t>
-  </si>
-  <si>
-    <t>(day)</t>
-  </si>
-  <si>
-    <t>(count)</t>
-  </si>
-  <si>
-    <t>Plan Start là số thứ tự của ngày bắt đầu. Ví dụ bắt đàu từ ngày thứ 2 tức là ngày 7 Apr 202</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Plan duration là làm trong bao nhiêu ngày…</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Note Details</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>Giải thích những chức năng, thảo luận…</t>
-  </si>
-  <si>
-    <t>All roles</t>
-  </si>
-  <si>
-    <t>Show menu</t>
-  </si>
-  <si>
-    <t>View profile info</t>
-  </si>
-  <si>
-    <t>Change password</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>Edit an existing student.</t>
-  </si>
-  <si>
-    <t>Remove a student.</t>
-  </si>
-  <si>
-    <t>Change students from class A to class B</t>
-  </si>
-  <si>
-    <t>View list of classes.</t>
-  </si>
-  <si>
-    <t>View list of students in a class.</t>
-  </si>
-  <si>
-    <t>Create / update / delete / view academic years (2018-2019), and semesters (Fall).</t>
-  </si>
-  <si>
-    <t>Manually add a new course.</t>
-  </si>
-  <si>
-    <t>Edit an existing course.</t>
-  </si>
-  <si>
-    <t>Remove a course.</t>
-  </si>
-  <si>
-    <t>View list of courses in the current semester.</t>
-  </si>
-  <si>
-    <t>View list of students of a course.</t>
-  </si>
-  <si>
-    <t>View attendance list of a course.</t>
-  </si>
-  <si>
-    <t>Create / update / delete / view all lecturers.</t>
-  </si>
-  <si>
-    <t>Search and view the scoreboard of a course.</t>
-  </si>
-  <si>
-    <t>Export a scoreboard to a csv file.</t>
-  </si>
-  <si>
-    <t>Search and view attendance list of a course.</t>
-  </si>
-  <si>
-    <t>Export a attendance list to a csv file.</t>
-  </si>
-  <si>
-    <t>Edit an attendance.</t>
-  </si>
-  <si>
-    <t>Import scoreboard of a course (midterm, final, lab, bonus) from a csv file.</t>
-  </si>
-  <si>
-    <t>Edit grade of a student</t>
-  </si>
-  <si>
-    <t>View a scoreboard</t>
-  </si>
-  <si>
-    <t>View check-in result.</t>
-  </si>
-  <si>
-    <t>View schedules.</t>
-  </si>
-  <si>
-    <t>View his/her scores of a course.</t>
-  </si>
-  <si>
-    <t>Academic staff-Class</t>
-  </si>
-  <si>
-    <t>Academic staff-Score board</t>
-  </si>
-  <si>
-    <t>Academic staff-Attendance list</t>
-  </si>
-  <si>
-    <t>Lecturer</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Menu</t>
-  </si>
-  <si>
-    <t>Hash password (optional). Tip: SHA1, SHA256…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data must be stored in file. You can define your own format but it must store all the information as described above. </t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Dùng mảng động, không dùng vector</t>
-  </si>
-  <si>
-    <t>Login (3 role: Academic Staff, Lecturer, Student)</t>
-  </si>
-  <si>
-    <t>Có thể dùng string thay vì char*</t>
-  </si>
-  <si>
-    <t>Hiển thị thông tin Project</t>
-  </si>
-  <si>
-    <t>Khau Dang Nhat Minh</t>
-  </si>
-  <si>
-    <t>Nguyen Quoc Khanh Tuyen</t>
-  </si>
-  <si>
-    <t>Nguyen Khanh Nguyen</t>
-  </si>
-  <si>
-    <t>Nguyen Thieu Khang</t>
-  </si>
-  <si>
-    <t>gulugulu</t>
-  </si>
-  <si>
-    <t>Manually add a new student to a class. </t>
-  </si>
-  <si>
-    <t>Import students of a class from a csv file. </t>
-  </si>
-  <si>
-    <t>From a semester, import courses from a csv file. </t>
-  </si>
-  <si>
-    <t>Remove a specific student from a course.</t>
-  </si>
-  <si>
-    <t>Add a specific student to a course.</t>
-  </si>
-  <si>
-    <t>Check-in (1 tuần học/checkin 1 buổi) trong 11 tuần</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>Minh</t>
-  </si>
-  <si>
-    <t>Be sure that, if I delete a csv file after importing, there is no harm to your system.</t>
-  </si>
-  <si>
-    <t>Tuyen</t>
-  </si>
-  <si>
-    <t>Nguyen</t>
-  </si>
-  <si>
-    <t>Khang</t>
-  </si>
-  <si>
-    <t>Student ID</t>
-  </si>
-  <si>
-    <t>GitHub username</t>
-  </si>
-  <si>
-    <t>kdnminh-wolfris</t>
-  </si>
-  <si>
-    <t>19125011</t>
-  </si>
-  <si>
-    <t>peternguyen39</t>
-  </si>
-  <si>
-    <t>nknguyen19</t>
-  </si>
-  <si>
-    <t>19125109</t>
-  </si>
-  <si>
-    <t>nguyenthieukhang</t>
-  </si>
-  <si>
-    <t>19125051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19125073 </t>
-  </si>
-  <si>
-    <t>Academic staff-Course</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Additional Functions</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>Hash password</t>
-  </si>
-  <si>
     <t>Staff login done (1/3)</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>Settings</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="dd\ mmm\ yy"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -661,12 +661,6 @@
       <b/>
       <sz val="13"/>
       <color theme="7"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1027,14 +1021,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1043,10 +1037,10 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,10 +1054,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="3">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1">
@@ -1072,7 +1066,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="7">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="7" applyFont="1">
@@ -1099,8 +1093,8 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1111,26 +1105,26 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1">
       <alignment horizontal="center"/>
@@ -1138,44 +1132,44 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="3" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="3" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1183,27 +1177,24 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1213,43 +1204,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="3" applyBorder="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="3" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="3" applyBorder="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="5" xfId="3" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="3" applyBorder="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="3" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1489,62 +1483,53 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Spinner 5" descr="Period Highlight Spin Control" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1029" name="Spinner 5" descr="Period Highlight Spin Control" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1029"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1796,18 +1781,18 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="52.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="52.125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="69" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -1817,7 +1802,7 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1827,7 +1812,7 @@
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1837,102 +1822,102 @@
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>32</v>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1">
+      <c r="B11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1">
+      <c r="B12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="C12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
+      <c r="F12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
+    </row>
+    <row r="13" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1">
+      <c r="B13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1">
+      <c r="B14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1">
+      <c r="B15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="21" t="s">
+    </row>
+    <row r="16" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1">
+      <c r="B16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1955,17 +1940,17 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="69" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -1973,7 +1958,7 @@
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1981,7 +1966,7 @@
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
     </row>
-    <row r="3" spans="1:6" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="19.350000000000001" customHeight="1">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1989,145 +1974,145 @@
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="1:6">
+      <c r="B4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="16"/>
+      <c r="C7" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="16"/>
+      <c r="C8" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D8" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="16"/>
+      <c r="C9" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="17"/>
-      <c r="C7" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
-      <c r="C8" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="17"/>
-      <c r="C9" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="17"/>
-      <c r="C10" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="17"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="67"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="17"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="18" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="16"/>
+      <c r="C10" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="16"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="66"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="43">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="16"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="21" spans="3:3" ht="21">
+      <c r="C21" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="44">
-        <v>43940</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="17"/>
-      <c r="C15" s="28"/>
-    </row>
-    <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="C21" s="50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="C22" s="46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="C23" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="C24" s="46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="C25" s="46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="C27" s="54" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="C28" s="54" t="s">
-        <v>97</v>
+    </row>
+    <row r="22" spans="3:3" ht="15.95">
+      <c r="C22" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="15.95">
+      <c r="C23" s="45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" ht="15.95">
+      <c r="C24" s="45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" ht="15.95">
+      <c r="C25" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" ht="29.1">
+      <c r="C27" s="53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" ht="29.1">
+      <c r="C28" s="53" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2146,7 +2131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
@@ -2154,31 +2139,30 @@
   <dimension ref="A1:BN68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="K7" sqref="K7"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="18.95"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="41.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
-    <col min="10" max="29" width="7.6640625" style="1" customWidth="1"/>
-    <col min="30" max="66" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="1" customWidth="1"/>
+    <col min="10" max="29" width="7.625" style="1" customWidth="1"/>
+    <col min="30" max="66" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" ht="15">
       <c r="B1" s="70" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C1" s="70"/>
       <c r="D1" s="70"/>
@@ -2187,7 +2171,7 @@
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66">
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -2196,7 +2180,7 @@
       <c r="G2" s="70"/>
       <c r="H2" s="70"/>
       <c r="J2" s="7" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -2207,20 +2191,20 @@
       </c>
       <c r="P2" s="7"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="16" t="s">
-        <v>1</v>
+      <c r="S2" s="68" t="s">
+        <v>58</v>
       </c>
       <c r="U2" s="10"/>
-      <c r="V2" s="16" t="s">
-        <v>2</v>
+      <c r="V2" s="68" t="s">
+        <v>59</v>
       </c>
       <c r="Y2" s="11"/>
       <c r="Z2" s="5" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AD2" s="12"/>
       <c r="AE2" s="5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
@@ -2228,10 +2212,10 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="13"/>
       <c r="AM2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" ht="15">
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
@@ -2245,356 +2229,356 @@
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
     </row>
-    <row r="4" spans="1:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" ht="15">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>7</v>
+      <c r="D4" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="45">
+      <c r="J4" s="44">
         <v>43940</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="44">
         <f>J4+1</f>
         <v>43941</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="44">
         <f t="shared" ref="L4:BN4" si="0">K4+1</f>
         <v>43942</v>
       </c>
-      <c r="M4" s="45">
+      <c r="M4" s="44">
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="N4" s="45">
+      <c r="N4" s="44">
         <f t="shared" si="0"/>
         <v>43944</v>
       </c>
-      <c r="O4" s="45">
+      <c r="O4" s="44">
         <f t="shared" si="0"/>
         <v>43945</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="44">
         <f t="shared" si="0"/>
         <v>43946</v>
       </c>
-      <c r="Q4" s="45">
+      <c r="Q4" s="44">
         <f t="shared" si="0"/>
         <v>43947</v>
       </c>
-      <c r="R4" s="45">
+      <c r="R4" s="44">
         <f t="shared" si="0"/>
         <v>43948</v>
       </c>
-      <c r="S4" s="45">
+      <c r="S4" s="44">
         <f t="shared" si="0"/>
         <v>43949</v>
       </c>
-      <c r="T4" s="45">
+      <c r="T4" s="44">
         <f t="shared" si="0"/>
         <v>43950</v>
       </c>
-      <c r="U4" s="45">
+      <c r="U4" s="44">
         <f t="shared" si="0"/>
         <v>43951</v>
       </c>
-      <c r="V4" s="45">
+      <c r="V4" s="44">
         <f t="shared" si="0"/>
         <v>43952</v>
       </c>
-      <c r="W4" s="45">
+      <c r="W4" s="44">
         <f t="shared" si="0"/>
         <v>43953</v>
       </c>
-      <c r="X4" s="45">
+      <c r="X4" s="44">
         <f t="shared" si="0"/>
         <v>43954</v>
       </c>
-      <c r="Y4" s="45">
+      <c r="Y4" s="44">
         <f t="shared" si="0"/>
         <v>43955</v>
       </c>
-      <c r="Z4" s="45">
+      <c r="Z4" s="44">
         <f t="shared" si="0"/>
         <v>43956</v>
       </c>
-      <c r="AA4" s="45">
+      <c r="AA4" s="44">
         <f t="shared" si="0"/>
         <v>43957</v>
       </c>
-      <c r="AB4" s="45">
+      <c r="AB4" s="44">
         <f t="shared" si="0"/>
         <v>43958</v>
       </c>
-      <c r="AC4" s="45">
+      <c r="AC4" s="44">
         <f t="shared" si="0"/>
         <v>43959</v>
       </c>
-      <c r="AD4" s="45">
+      <c r="AD4" s="44">
         <f t="shared" si="0"/>
         <v>43960</v>
       </c>
-      <c r="AE4" s="45">
+      <c r="AE4" s="44">
         <f t="shared" si="0"/>
         <v>43961</v>
       </c>
-      <c r="AF4" s="45">
+      <c r="AF4" s="44">
         <f t="shared" si="0"/>
         <v>43962</v>
       </c>
-      <c r="AG4" s="45">
+      <c r="AG4" s="44">
         <f t="shared" si="0"/>
         <v>43963</v>
       </c>
-      <c r="AH4" s="45">
+      <c r="AH4" s="44">
         <f t="shared" si="0"/>
         <v>43964</v>
       </c>
-      <c r="AI4" s="45">
+      <c r="AI4" s="44">
         <f t="shared" si="0"/>
         <v>43965</v>
       </c>
-      <c r="AJ4" s="45">
+      <c r="AJ4" s="44">
         <f t="shared" si="0"/>
         <v>43966</v>
       </c>
-      <c r="AK4" s="45">
+      <c r="AK4" s="44">
         <f t="shared" si="0"/>
         <v>43967</v>
       </c>
-      <c r="AL4" s="45">
+      <c r="AL4" s="44">
         <f t="shared" si="0"/>
         <v>43968</v>
       </c>
-      <c r="AM4" s="45">
+      <c r="AM4" s="44">
         <f t="shared" si="0"/>
         <v>43969</v>
       </c>
-      <c r="AN4" s="45">
+      <c r="AN4" s="44">
         <f t="shared" si="0"/>
         <v>43970</v>
       </c>
-      <c r="AO4" s="45">
+      <c r="AO4" s="44">
         <f t="shared" si="0"/>
         <v>43971</v>
       </c>
-      <c r="AP4" s="45">
+      <c r="AP4" s="44">
         <f t="shared" si="0"/>
         <v>43972</v>
       </c>
-      <c r="AQ4" s="45">
+      <c r="AQ4" s="44">
         <f t="shared" si="0"/>
         <v>43973</v>
       </c>
-      <c r="AR4" s="45">
+      <c r="AR4" s="44">
         <f t="shared" si="0"/>
         <v>43974</v>
       </c>
-      <c r="AS4" s="45">
+      <c r="AS4" s="44">
         <f t="shared" si="0"/>
         <v>43975</v>
       </c>
-      <c r="AT4" s="45">
+      <c r="AT4" s="44">
         <f t="shared" si="0"/>
         <v>43976</v>
       </c>
-      <c r="AU4" s="45">
+      <c r="AU4" s="44">
         <f t="shared" si="0"/>
         <v>43977</v>
       </c>
-      <c r="AV4" s="45">
+      <c r="AV4" s="44">
         <f t="shared" si="0"/>
         <v>43978</v>
       </c>
-      <c r="AW4" s="45">
+      <c r="AW4" s="44">
         <f t="shared" si="0"/>
         <v>43979</v>
       </c>
-      <c r="AX4" s="45">
+      <c r="AX4" s="44">
         <f t="shared" si="0"/>
         <v>43980</v>
       </c>
-      <c r="AY4" s="45">
+      <c r="AY4" s="44">
         <f t="shared" si="0"/>
         <v>43981</v>
       </c>
-      <c r="AZ4" s="45">
+      <c r="AZ4" s="44">
         <f t="shared" si="0"/>
         <v>43982</v>
       </c>
-      <c r="BA4" s="45">
+      <c r="BA4" s="44">
         <f t="shared" si="0"/>
         <v>43983</v>
       </c>
-      <c r="BB4" s="45">
+      <c r="BB4" s="44">
         <f t="shared" si="0"/>
         <v>43984</v>
       </c>
-      <c r="BC4" s="45">
+      <c r="BC4" s="44">
         <f t="shared" si="0"/>
         <v>43985</v>
       </c>
-      <c r="BD4" s="45">
+      <c r="BD4" s="44">
         <f t="shared" si="0"/>
         <v>43986</v>
       </c>
-      <c r="BE4" s="45">
+      <c r="BE4" s="44">
         <f t="shared" si="0"/>
         <v>43987</v>
       </c>
-      <c r="BF4" s="45">
+      <c r="BF4" s="44">
         <f t="shared" si="0"/>
         <v>43988</v>
       </c>
-      <c r="BG4" s="45">
+      <c r="BG4" s="44">
         <f t="shared" si="0"/>
         <v>43989</v>
       </c>
-      <c r="BH4" s="45">
+      <c r="BH4" s="44">
         <f t="shared" si="0"/>
         <v>43990</v>
       </c>
-      <c r="BI4" s="45">
+      <c r="BI4" s="44">
         <f t="shared" si="0"/>
         <v>43991</v>
       </c>
-      <c r="BJ4" s="45">
+      <c r="BJ4" s="44">
         <f t="shared" si="0"/>
         <v>43992</v>
       </c>
-      <c r="BK4" s="45">
+      <c r="BK4" s="44">
         <f t="shared" si="0"/>
         <v>43993</v>
       </c>
-      <c r="BL4" s="45">
+      <c r="BL4" s="44">
         <f t="shared" si="0"/>
         <v>43994</v>
       </c>
-      <c r="BM4" s="45">
+      <c r="BM4" s="44">
         <f t="shared" si="0"/>
         <v>43995</v>
       </c>
-      <c r="BN4" s="45">
+      <c r="BN4" s="44">
         <f t="shared" si="0"/>
         <v>43996</v>
       </c>
     </row>
-    <row r="5" spans="1:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>8</v>
+    <row r="5" spans="1:66" ht="15">
+      <c r="A5" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="37"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="37"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="36"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="37"/>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="37"/>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="36"/>
-      <c r="BN5" s="37"/>
-    </row>
-    <row r="6" spans="1:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="J5" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="35"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="35"/>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
+      <c r="BJ5" s="36"/>
+      <c r="BK5" s="36"/>
+      <c r="BL5" s="36"/>
+      <c r="BM5" s="35"/>
+      <c r="BN5" s="36"/>
+    </row>
+    <row r="6" spans="1:66" ht="15">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="3">
         <v>1</v>
       </c>
@@ -2767,15 +2751,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
+    <row r="7" spans="1:66" ht="15">
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2834,29 +2818,29 @@
       <c r="BM7" s="3"/>
       <c r="BN7" s="3"/>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A8" s="64">
+    <row r="8" spans="1:66">
+      <c r="A8" s="63">
         <v>1</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="58"/>
+      <c r="B8" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="57"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:66" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="65">
+    <row r="9" spans="1:66" ht="17.100000000000001">
+      <c r="A9" s="64">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>111</v>
+      <c r="B9" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>77</v>
       </c>
       <c r="D9" s="14">
         <v>1</v>
@@ -2874,15 +2858,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:66" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="65">
+    <row r="10" spans="1:66" ht="17.100000000000001">
+      <c r="A10" s="64">
         <v>1.2</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>111</v>
+      <c r="B10" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>77</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
@@ -2900,15 +2884,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:66" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="65">
+    <row r="11" spans="1:66" ht="17.100000000000001">
+      <c r="A11" s="64">
         <v>1.3</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>111</v>
+      <c r="B11" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>77</v>
       </c>
       <c r="D11" s="14">
         <v>1</v>
@@ -2926,15 +2910,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:66" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="65">
+    <row r="12" spans="1:66" ht="17.100000000000001">
+      <c r="A12" s="64">
         <v>1.4</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>111</v>
+      <c r="B12" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>77</v>
       </c>
       <c r="D12" s="14">
         <v>1</v>
@@ -2952,15 +2936,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:66" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="65">
+    <row r="13" spans="1:66" ht="17.100000000000001">
+      <c r="A13" s="64">
         <v>1.5</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>111</v>
+      <c r="B13" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>77</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
@@ -2978,29 +2962,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A14" s="64">
+    <row r="14" spans="1:66">
+      <c r="A14" s="63">
         <v>2</v>
       </c>
-      <c r="B14" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="58"/>
+      <c r="B14" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="57"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:66" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="65">
+    <row r="15" spans="1:66" ht="17.100000000000001">
+      <c r="A15" s="64">
         <v>2.1</v>
       </c>
-      <c r="B15" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>113</v>
+      <c r="B15" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>84</v>
       </c>
       <c r="D15" s="14">
         <v>1</v>
@@ -3018,15 +3002,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:66" s="52" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="66">
+    <row r="16" spans="1:66" s="51" customFormat="1" ht="17.100000000000001">
+      <c r="A16" s="65">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B16" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>113</v>
+      <c r="B16" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>84</v>
       </c>
       <c r="D16" s="14">
         <v>1</v>
@@ -3034,40 +3018,40 @@
       <c r="E16" s="14">
         <v>14</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-    </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="65">
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.100000000000001">
+      <c r="A17" s="64">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B17" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>114</v>
+      <c r="B17" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>87</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
@@ -3085,15 +3069,15 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="65">
+    <row r="18" spans="1:8" ht="17.100000000000001">
+      <c r="A18" s="64">
         <v>2.4</v>
       </c>
-      <c r="B18" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>114</v>
+      <c r="B18" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>87</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
@@ -3111,15 +3095,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="65">
+    <row r="19" spans="1:8" ht="17.100000000000001">
+      <c r="A19" s="64">
         <v>2.5</v>
       </c>
-      <c r="B19" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>115</v>
+      <c r="B19" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>90</v>
       </c>
       <c r="D19" s="14">
         <v>1</v>
@@ -3127,19 +3111,25 @@
       <c r="E19" s="14">
         <v>14</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="65">
+      <c r="F19" s="14">
+        <v>5</v>
+      </c>
+      <c r="G19" s="14">
+        <v>6</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.100000000000001">
+      <c r="A20" s="64">
         <v>2.6</v>
       </c>
-      <c r="B20" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>115</v>
+      <c r="B20" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>90</v>
       </c>
       <c r="D20" s="14">
         <v>1</v>
@@ -3147,19 +3137,25 @@
       <c r="E20" s="14">
         <v>14</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="65">
+      <c r="F20" s="14">
+        <v>3</v>
+      </c>
+      <c r="G20" s="14">
+        <v>4</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.100000000000001">
+      <c r="A21" s="64">
         <v>2.7</v>
       </c>
-      <c r="B21" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>115</v>
+      <c r="B21" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>90</v>
       </c>
       <c r="D21" s="14">
         <v>1</v>
@@ -3167,558 +3163,564 @@
       <c r="E21" s="14">
         <v>14</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="64">
+      <c r="F21" s="14">
         <v>3</v>
       </c>
-      <c r="B22" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="58"/>
+      <c r="G21" s="14">
+        <v>4</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="63">
+        <v>3</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="57"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="65">
+    <row r="23" spans="1:8" ht="33.950000000000003">
+      <c r="A23" s="64">
         <v>3.1</v>
       </c>
-      <c r="B23" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="58"/>
+      <c r="B23" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="57"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="65">
+    <row r="24" spans="1:8" ht="33.950000000000003">
+      <c r="A24" s="64">
         <v>3.2</v>
       </c>
-      <c r="B24" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="58"/>
+      <c r="B24" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="57"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="65">
+    <row r="25" spans="1:8" ht="17.100000000000001">
+      <c r="A25" s="64">
         <v>3.3</v>
       </c>
-      <c r="B25" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="58"/>
+      <c r="B25" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="57"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="65">
+    <row r="26" spans="1:8" ht="17.100000000000001">
+      <c r="A26" s="64">
         <v>3.4</v>
       </c>
-      <c r="B26" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="58"/>
+      <c r="B26" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="57"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="65">
+    <row r="27" spans="1:8" ht="17.100000000000001">
+      <c r="A27" s="64">
         <v>3.5</v>
       </c>
-      <c r="B27" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="58"/>
+      <c r="B27" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="57"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="65">
+    <row r="28" spans="1:8" ht="17.100000000000001">
+      <c r="A28" s="64">
         <v>3.6</v>
       </c>
-      <c r="B28" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="58"/>
+      <c r="B28" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="57"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="65">
+    <row r="29" spans="1:8" ht="17.100000000000001">
+      <c r="A29" s="64">
         <v>3.7</v>
       </c>
-      <c r="B29" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="58"/>
+      <c r="B29" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="57"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="65">
+    <row r="30" spans="1:8" ht="17.100000000000001">
+      <c r="A30" s="64">
         <v>3.8</v>
       </c>
-      <c r="B30" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="58"/>
+      <c r="B30" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="57"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="65">
+    <row r="31" spans="1:8" ht="17.100000000000001">
+      <c r="A31" s="64">
         <v>3.9</v>
       </c>
-      <c r="B31" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="58"/>
+      <c r="B31" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="57"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="58"/>
+    <row r="32" spans="1:8" ht="17.100000000000001">
+      <c r="A32" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="57"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="65">
+    <row r="33" spans="1:8" ht="17.100000000000001">
+      <c r="A33" s="64">
         <v>3.11</v>
       </c>
-      <c r="B33" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="58"/>
+      <c r="B33" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="57"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="64">
+    <row r="34" spans="1:8">
+      <c r="A34" s="63">
         <v>4</v>
       </c>
-      <c r="B34" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="58"/>
+      <c r="B34" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="57"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="65">
+    <row r="35" spans="1:8" ht="17.100000000000001">
+      <c r="A35" s="64">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B35" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="58"/>
+      <c r="B35" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="57"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="65">
+    <row r="36" spans="1:8" ht="17.100000000000001">
+      <c r="A36" s="64">
         <v>4.2</v>
       </c>
-      <c r="B36" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="58"/>
+      <c r="B36" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="57"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="64">
+    <row r="37" spans="1:8">
+      <c r="A37" s="63">
         <v>5</v>
       </c>
-      <c r="B37" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="58"/>
+      <c r="B37" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="57"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="65">
+    <row r="38" spans="1:8" ht="17.100000000000001">
+      <c r="A38" s="64">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B38" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="58"/>
+      <c r="B38" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="57"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="65">
+    <row r="39" spans="1:8" ht="17.100000000000001">
+      <c r="A39" s="64">
         <v>5.2</v>
       </c>
-      <c r="B39" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="58"/>
+      <c r="B39" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="57"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="64">
+    <row r="40" spans="1:8">
+      <c r="A40" s="63">
         <v>6</v>
       </c>
-      <c r="B40" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="58"/>
+      <c r="B40" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="57"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="65">
+    <row r="41" spans="1:8" ht="17.100000000000001">
+      <c r="A41" s="64">
         <v>6.1</v>
       </c>
-      <c r="B41" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="58"/>
+      <c r="B41" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="57"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="65">
+    <row r="42" spans="1:8" ht="17.100000000000001">
+      <c r="A42" s="64">
         <v>6.2</v>
       </c>
-      <c r="B42" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="58"/>
+      <c r="B42" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="57"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="65">
+    <row r="43" spans="1:8" ht="17.100000000000001">
+      <c r="A43" s="64">
         <v>6.3</v>
       </c>
-      <c r="B43" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="58"/>
+      <c r="B43" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="57"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="65">
+    <row r="44" spans="1:8" ht="17.100000000000001">
+      <c r="A44" s="64">
         <v>6.4</v>
       </c>
-      <c r="B44" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="58"/>
+      <c r="B44" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="57"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="65">
+    <row r="45" spans="1:8" ht="33.950000000000003">
+      <c r="A45" s="64">
         <v>6.5</v>
       </c>
-      <c r="B45" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="58"/>
+      <c r="B45" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="57"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="65">
+    <row r="46" spans="1:8" ht="17.100000000000001">
+      <c r="A46" s="64">
         <v>6.6</v>
       </c>
-      <c r="B46" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="58"/>
+      <c r="B46" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="57"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="65">
+    <row r="47" spans="1:8" ht="17.100000000000001">
+      <c r="A47" s="64">
         <v>6.7</v>
       </c>
-      <c r="B47" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="58"/>
+      <c r="B47" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="57"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="64">
+    <row r="48" spans="1:8">
+      <c r="A48" s="63">
         <v>7</v>
       </c>
-      <c r="B48" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="58"/>
+      <c r="B48" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="57"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="65">
+    <row r="49" spans="1:8" ht="33.950000000000003">
+      <c r="A49" s="64">
         <v>7.1</v>
       </c>
-      <c r="B49" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="58"/>
+      <c r="B49" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="57"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="65">
+    <row r="50" spans="1:8" ht="17.100000000000001">
+      <c r="A50" s="64">
         <v>7.2</v>
       </c>
-      <c r="B50" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="58"/>
+      <c r="B50" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="57"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="65">
+    <row r="51" spans="1:8" ht="17.100000000000001">
+      <c r="A51" s="64">
         <v>7.3</v>
       </c>
-      <c r="B51" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="58"/>
+      <c r="B51" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="57"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="65">
+    <row r="52" spans="1:8" ht="17.100000000000001">
+      <c r="A52" s="64">
         <v>7.4</v>
       </c>
-      <c r="B52" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="58"/>
+      <c r="B52" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="57"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="58"/>
+    <row r="53" spans="1:8">
+      <c r="A53" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="57"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="58"/>
+    <row r="54" spans="1:8" ht="17.100000000000001">
+      <c r="A54" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="57"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="B55" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="58"/>
+    <row r="55" spans="1:8" ht="17.100000000000001">
+      <c r="A55" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="57"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="65"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="58"/>
+    <row r="56" spans="1:8" ht="17.100000000000001">
+      <c r="A56" s="64"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="65"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="58"/>
+    <row r="57" spans="1:8" ht="17.100000000000001">
+      <c r="A57" s="64"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="57"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="65"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="58"/>
+    <row r="58" spans="1:8" ht="17.100000000000001">
+      <c r="A58" s="64"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="65"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="58"/>
+    <row r="59" spans="1:8" ht="17.100000000000001">
+      <c r="A59" s="64"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="57"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="65"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="58"/>
+    <row r="60" spans="1:8" ht="17.100000000000001">
+      <c r="A60" s="64"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
+      <c r="A61" s="40"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="40"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="40"/>
+    </row>
+    <row r="66" spans="2:2">
       <c r="B66" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
       <c r="B67" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3768,35 +3770,6 @@
     <ignoredError sqref="A32 A53:A54" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId4" name="Spinner 5">
-              <controlPr defaultSize="0" print="0" autoPict="0" altText="Period Highlight Spin Control">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>15</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>15</xdr:col>
-                    <xdr:colOff>190500</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3816,72 +3789,72 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="125.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="125.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="51">
+    <row r="2" spans="1:3">
+      <c r="A2" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="51" customFormat="1" ht="15.95">
+      <c r="A3" s="50">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="51"/>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="47"/>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="47"/>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
-      <c r="B6" s="47"/>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="47"/>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="47"/>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B9" s="47"/>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="47"/>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="47"/>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="47"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="42"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+      <c r="B3" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="50"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.95">
+      <c r="A4" s="16"/>
+      <c r="B4" s="46"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.95">
+      <c r="B5" s="46"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.95">
+      <c r="A6" s="47"/>
+      <c r="B6" s="46"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.95">
+      <c r="B7" s="46"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.95">
+      <c r="A8" s="47"/>
+      <c r="B8" s="46"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.95">
+      <c r="B9" s="46"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.95">
+      <c r="A10" s="47"/>
+      <c r="B10" s="46"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.95">
+      <c r="A11" s="47"/>
+      <c r="B11" s="46"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.95">
+      <c r="A12" s="47"/>
+      <c r="B12" s="46"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="41"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3899,9 +3872,5 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}"/>
 </file>
--- a/planner.xlsx
+++ b/planner.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{65D18CF2-065D-114D-8D4F-34F08C2EE556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4495EFCB-5A8B-46C7-BF2B-DB12DADBA3D5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA313F03-4D9A-424E-A8EB-0858D96B6318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3960" windowWidth="28800" windowHeight="15435" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -613,7 +613,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="dd\ mmm\ yy"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -1781,7 +1781,7 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.875" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
@@ -1790,7 +1790,7 @@
     <col min="5" max="5" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1802,7 @@
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1812,7 +1812,7 @@
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1822,7 +1822,7 @@
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>1</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>3</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>5</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1">
+    <row r="10" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1">
+    <row r="11" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>12</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1">
+    <row r="12" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>15</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1">
+    <row r="13" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>18</v>
       </c>
@@ -1895,7 +1895,7 @@
       <c r="E13" s="26"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1">
+    <row r="14" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>20</v>
       </c>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1">
+    <row r="15" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>22</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1">
+    <row r="16" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>24</v>
       </c>
@@ -1940,7 +1940,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="27.625" customWidth="1"/>
@@ -1948,7 +1948,7 @@
     <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>26</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1966,7 +1966,7 @@
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
     </row>
-    <row r="3" spans="1:6" ht="19.350000000000001" customHeight="1">
+    <row r="3" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1974,7 +1974,7 @@
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>27</v>
       </c>
@@ -1982,10 +1982,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>29</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
       <c r="C7" s="66" t="s">
         <v>33</v>
@@ -2011,7 +2011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
       <c r="C8" s="66" t="s">
         <v>36</v>
@@ -2023,7 +2023,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
       <c r="C9" s="66" t="s">
         <v>39</v>
@@ -2035,7 +2035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
       <c r="C10" s="66" t="s">
         <v>42</v>
@@ -2047,16 +2047,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
       <c r="C11" s="66"/>
       <c r="D11" s="67"/>
       <c r="E11" s="66"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>45</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>47</v>
       </c>
@@ -2076,41 +2076,41 @@
       </c>
       <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
     </row>
-    <row r="21" spans="3:3" ht="21">
+    <row r="21" spans="3:3" ht="21" x14ac:dyDescent="0.25">
       <c r="C21" s="49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="15.95">
+    <row r="22" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="15.95">
+    <row r="23" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="15.95">
+    <row r="24" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="45" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="15.95">
+    <row r="25" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="29.1">
+    <row r="27" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C27" s="53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="3:3" ht="29.1">
+    <row r="28" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C28" s="53" t="s">
         <v>55</v>
       </c>
@@ -2140,12 +2140,12 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="9" ySplit="6" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="topRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="18.95"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" style="39" customWidth="1"/>
     <col min="2" max="2" width="41.625" style="2" customWidth="1"/>
@@ -2160,7 +2160,7 @@
     <col min="30" max="66" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15">
+    <row r="1" spans="1:66" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="70" t="s">
         <v>56</v>
       </c>
@@ -2171,7 +2171,7 @@
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
     </row>
-    <row r="2" spans="1:66">
+    <row r="2" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -2215,7 +2215,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:66" ht="15">
+    <row r="3" spans="1:66" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
@@ -2229,7 +2229,7 @@
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
     </row>
-    <row r="4" spans="1:66" ht="15">
+    <row r="4" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="31" t="s">
@@ -2476,7 +2476,7 @@
         <v>43996</v>
       </c>
     </row>
-    <row r="5" spans="1:66" ht="15">
+    <row r="5" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>66</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="BM5" s="35"/>
       <c r="BN5" s="36"/>
     </row>
-    <row r="6" spans="1:66" ht="15">
+    <row r="6" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37" t="s">
@@ -2751,7 +2751,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:66" ht="15">
+    <row r="7" spans="1:66" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="58"/>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -2818,7 +2818,7 @@
       <c r="BM7" s="3"/>
       <c r="BN7" s="3"/>
     </row>
-    <row r="8" spans="1:66">
+    <row r="8" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="63">
         <v>1</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:66" ht="17.100000000000001">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" s="64">
         <v>1.1000000000000001</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:66" ht="17.100000000000001">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" s="64">
         <v>1.2</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:66" ht="17.100000000000001">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11" s="64">
         <v>1.3</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:66" ht="17.100000000000001">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" s="64">
         <v>1.4</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:66" ht="17.100000000000001">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" s="64">
         <v>1.5</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:66">
+    <row r="14" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A14" s="63">
         <v>2</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:66" ht="17.100000000000001">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" s="64">
         <v>2.1</v>
       </c>
@@ -2996,13 +2996,13 @@
         <v>2</v>
       </c>
       <c r="G15" s="14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H15" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:66" s="51" customFormat="1" ht="17.100000000000001">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65">
         <v>2.2000000000000002</v>
       </c>
@@ -3043,7 +3043,7 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" spans="1:8" ht="17.100000000000001">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="64">
         <v>2.2999999999999998</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.100000000000001">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="64">
         <v>2.4</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.100000000000001">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="64">
         <v>2.5</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.100000000000001">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="64">
         <v>2.6</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.100000000000001">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="64">
         <v>2.7</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A22" s="63">
         <v>3</v>
       </c>
@@ -3187,7 +3187,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="33.950000000000003">
+    <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="64">
         <v>3.1</v>
       </c>
@@ -3201,7 +3201,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" ht="33.950000000000003">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="64">
         <v>3.2</v>
       </c>
@@ -3215,7 +3215,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" ht="17.100000000000001">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="64">
         <v>3.3</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" ht="17.100000000000001">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="64">
         <v>3.4</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" ht="17.100000000000001">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="64">
         <v>3.5</v>
       </c>
@@ -3257,7 +3257,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" ht="17.100000000000001">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="64">
         <v>3.6</v>
       </c>
@@ -3271,7 +3271,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" ht="17.100000000000001">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="64">
         <v>3.7</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" ht="17.100000000000001">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="64">
         <v>3.8</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" ht="17.100000000000001">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="64">
         <v>3.9</v>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" ht="17.100000000000001">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="64" t="s">
         <v>103</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" ht="17.100000000000001">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="64">
         <v>3.11</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A34" s="63">
         <v>4</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" ht="17.100000000000001">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="64">
         <v>4.0999999999999996</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" ht="17.100000000000001">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="64">
         <v>4.2</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A37" s="63">
         <v>5</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" ht="17.100000000000001">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="64">
         <v>5.0999999999999996</v>
       </c>
@@ -3411,7 +3411,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" ht="17.100000000000001">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="64">
         <v>5.2</v>
       </c>
@@ -3425,7 +3425,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A40" s="63">
         <v>6</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" ht="17.100000000000001">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="64">
         <v>6.1</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" ht="17.100000000000001">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="64">
         <v>6.2</v>
       </c>
@@ -3467,7 +3467,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:8" ht="17.100000000000001">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="64">
         <v>6.3</v>
       </c>
@@ -3481,7 +3481,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" ht="17.100000000000001">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="64">
         <v>6.4</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" ht="33.950000000000003">
+    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="64">
         <v>6.5</v>
       </c>
@@ -3509,7 +3509,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" ht="17.100000000000001">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="64">
         <v>6.6</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:8" ht="17.100000000000001">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="64">
         <v>6.7</v>
       </c>
@@ -3537,7 +3537,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A48" s="63">
         <v>7</v>
       </c>
@@ -3551,7 +3551,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:8" ht="33.950000000000003">
+    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="64">
         <v>7.1</v>
       </c>
@@ -3565,7 +3565,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:8" ht="17.100000000000001">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="64">
         <v>7.2</v>
       </c>
@@ -3579,7 +3579,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:8" ht="17.100000000000001">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="64">
         <v>7.3</v>
       </c>
@@ -3593,7 +3593,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:8" ht="17.100000000000001">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="64">
         <v>7.4</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A53" s="63" t="s">
         <v>122</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:8" ht="17.100000000000001">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="64" t="s">
         <v>124</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:8" ht="17.100000000000001">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="64" t="s">
         <v>126</v>
       </c>
@@ -3649,7 +3649,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="1:8" ht="17.100000000000001">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="64"/>
       <c r="B56" s="61"/>
       <c r="C56" s="57"/>
@@ -3659,7 +3659,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:8" ht="17.100000000000001">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="64"/>
       <c r="B57" s="61"/>
       <c r="C57" s="57"/>
@@ -3669,7 +3669,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" ht="17.100000000000001">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="64"/>
       <c r="B58" s="61"/>
       <c r="C58" s="57"/>
@@ -3679,7 +3679,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" ht="17.100000000000001">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="64"/>
       <c r="B59" s="61"/>
       <c r="C59" s="57"/>
@@ -3689,7 +3689,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" ht="17.100000000000001">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="64"/>
       <c r="B60" s="61"/>
       <c r="C60" s="57"/>
@@ -3699,26 +3699,26 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>130</v>
       </c>
@@ -3789,14 +3789,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="125.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>66</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="51" customFormat="1" ht="15.95">
+    <row r="3" spans="1:3" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="50">
         <v>1.1000000000000001</v>
       </c>
@@ -3816,44 +3816,44 @@
       </c>
       <c r="C3" s="50"/>
     </row>
-    <row r="4" spans="1:3" ht="15.95">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="46"/>
     </row>
-    <row r="5" spans="1:3" ht="15.95">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="46"/>
     </row>
-    <row r="6" spans="1:3" ht="15.95">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46"/>
     </row>
-    <row r="7" spans="1:3" ht="15.95">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="46"/>
     </row>
-    <row r="8" spans="1:3" ht="15.95">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="46"/>
     </row>
-    <row r="9" spans="1:3" ht="15.95">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="46"/>
     </row>
-    <row r="10" spans="1:3" ht="15.95">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46"/>
     </row>
-    <row r="11" spans="1:3" ht="15.95">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46"/>
     </row>
-    <row r="12" spans="1:3" ht="15.95">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="41"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
     </row>
   </sheetData>
@@ -3872,5 +3872,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/planner.xlsx
+++ b/planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA313F03-4D9A-424E-A8EB-0858D96B6318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCAB3BE-02B5-4A23-879E-B61AB3A90092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3960" windowWidth="28800" windowHeight="15435" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -2139,10 +2139,10 @@
   <dimension ref="A1:BN68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2996,10 +2996,10 @@
         <v>2</v>
       </c>
       <c r="G15" s="14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H15" s="15">
-        <v>0.55000000000000004</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="16" spans="1:66" s="51" customFormat="1" x14ac:dyDescent="0.25">

--- a/planner.xlsx
+++ b/planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCAB3BE-02B5-4A23-879E-B61AB3A90092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B587B-6258-4697-BFD9-74FD5F455D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="135">
   <si>
     <t>Project Planner Guide</t>
   </si>
@@ -603,6 +603,9 @@
   <si>
     <t>Staff login done (1/3)</t>
   </si>
+  <si>
+    <t>change into Data Abstract</t>
+  </si>
 </sst>
 </file>
 
@@ -613,7 +616,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="dd\ mmm\ yy"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -886,6 +889,18 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1044,7 +1059,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,9 +1204,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1245,18 +1257,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Đầu đề 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Siêu kết nối" xfId="8" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1791,36 +1809,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
@@ -1949,30 +1967,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
@@ -2001,57 +2019,57 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="65" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="65" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="65" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="65" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="66"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="65"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
@@ -2106,12 +2124,12 @@
       </c>
     </row>
     <row r="27" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="52" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="3:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="52" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2139,10 +2157,10 @@
   <dimension ref="A1:BN68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2161,24 +2179,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
       <c r="J2" s="7" t="s">
         <v>57</v>
       </c>
@@ -2191,11 +2209,11 @@
       </c>
       <c r="P2" s="7"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="68" t="s">
+      <c r="S2" s="67" t="s">
         <v>58</v>
       </c>
       <c r="U2" s="10"/>
-      <c r="V2" s="68" t="s">
+      <c r="V2" s="67" t="s">
         <v>59</v>
       </c>
       <c r="Y2" s="11"/>
@@ -2216,13 +2234,13 @@
       </c>
     </row>
     <row r="3" spans="1:66" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
@@ -2752,14 +2770,14 @@
       </c>
     </row>
     <row r="7" spans="1:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2819,13 +2837,13 @@
       <c r="BN7" s="3"/>
     </row>
     <row r="8" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="63">
+      <c r="A8" s="62">
         <v>1</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -2833,13 +2851,13 @@
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A9" s="64">
+      <c r="A9" s="63">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>77</v>
       </c>
       <c r="D9" s="14">
@@ -2852,20 +2870,20 @@
         <v>2</v>
       </c>
       <c r="G9" s="14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H9" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A10" s="64">
+      <c r="A10" s="63">
         <v>1.2</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="56" t="s">
         <v>77</v>
       </c>
       <c r="D10" s="14">
@@ -2878,20 +2896,20 @@
         <v>2</v>
       </c>
       <c r="G10" s="14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H10" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A11" s="64">
+      <c r="A11" s="63">
         <v>1.3</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="56" t="s">
         <v>77</v>
       </c>
       <c r="D11" s="14">
@@ -2904,20 +2922,20 @@
         <v>6</v>
       </c>
       <c r="G11" s="14">
+        <v>8</v>
+      </c>
+      <c r="H11" s="15">
         <v>1</v>
       </c>
-      <c r="H11" s="15">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A12" s="64">
+      <c r="A12" s="63">
         <v>1.4</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="56" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="14">
@@ -2937,13 +2955,13 @@
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A13" s="64">
+      <c r="A13" s="63">
         <v>1.5</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="56" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="14">
@@ -2963,13 +2981,13 @@
       </c>
     </row>
     <row r="14" spans="1:66" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="63">
+      <c r="A14" s="62">
         <v>2</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -2977,13 +2995,13 @@
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A15" s="64">
+      <c r="A15" s="63">
         <v>2.1</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D15" s="14">
@@ -3003,13 +3021,13 @@
       </c>
     </row>
     <row r="16" spans="1:66" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65">
+      <c r="A16" s="64">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D16" s="14">
@@ -3018,39 +3036,39 @@
       <c r="E16" s="14">
         <v>14</v>
       </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="64">
+      <c r="A17" s="63">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="56" t="s">
         <v>87</v>
       </c>
       <c r="D17" s="14">
@@ -3070,13 +3088,13 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="64">
+      <c r="A18" s="63">
         <v>2.4</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="56" t="s">
         <v>87</v>
       </c>
       <c r="D18" s="14">
@@ -3096,13 +3114,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="64">
+      <c r="A19" s="63">
         <v>2.5</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="56" t="s">
         <v>90</v>
       </c>
       <c r="D19" s="14">
@@ -3122,13 +3140,13 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="64">
+      <c r="A20" s="63">
         <v>2.6</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="56" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="14">
@@ -3148,13 +3166,13 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="64">
+      <c r="A21" s="63">
         <v>2.7</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="56" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="14">
@@ -3174,13 +3192,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="63">
+      <c r="A22" s="62">
         <v>3</v>
       </c>
       <c r="B22" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="57"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -3188,111 +3206,155 @@
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="64">
+      <c r="A23" s="63">
         <v>3.1</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="C23" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="14">
+        <v>16</v>
+      </c>
+      <c r="E23" s="14">
+        <v>14</v>
+      </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="64">
+      <c r="A24" s="63">
         <v>3.2</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="C24" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="14">
+        <v>16</v>
+      </c>
+      <c r="E24" s="14">
+        <v>14</v>
+      </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="64">
+      <c r="A25" s="63">
         <v>3.3</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="C25" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="14">
+        <v>16</v>
+      </c>
+      <c r="E25" s="14">
+        <v>14</v>
+      </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="64">
+      <c r="A26" s="63">
         <v>3.4</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="C26" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="14">
+        <v>16</v>
+      </c>
+      <c r="E26" s="14">
+        <v>14</v>
+      </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="64">
+      <c r="A27" s="63">
         <v>3.5</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="C27" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="14">
+        <v>16</v>
+      </c>
+      <c r="E27" s="14">
+        <v>14</v>
+      </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="64">
+      <c r="A28" s="63">
         <v>3.6</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="C28" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="14">
+        <v>16</v>
+      </c>
+      <c r="E28" s="14">
+        <v>14</v>
+      </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="64">
+      <c r="A29" s="63">
         <v>3.7</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="C29" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="14">
+        <v>16</v>
+      </c>
+      <c r="E29" s="14">
+        <v>14</v>
+      </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="64">
+      <c r="A30" s="63">
         <v>3.8</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="57"/>
+      <c r="C30" s="56" t="s">
+        <v>90</v>
+      </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -3300,13 +3362,15 @@
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="64">
+      <c r="A31" s="63">
         <v>3.9</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="57"/>
+      <c r="C31" s="56" t="s">
+        <v>87</v>
+      </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -3314,13 +3378,15 @@
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="57"/>
+      <c r="C32" s="56" t="s">
+        <v>84</v>
+      </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -3328,27 +3394,33 @@
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="64">
+      <c r="A33" s="63">
         <v>3.11</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="C33" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="14">
+        <v>16</v>
+      </c>
+      <c r="E33" s="14">
+        <v>14</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="63">
+      <c r="A34" s="62">
         <v>4</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="57"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -3356,13 +3428,13 @@
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="64">
+      <c r="A35" s="63">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="57"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -3370,13 +3442,13 @@
       <c r="H35" s="15"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="64">
+      <c r="A36" s="63">
         <v>4.2</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="57"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -3384,13 +3456,13 @@
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="63">
+      <c r="A37" s="62">
         <v>5</v>
       </c>
       <c r="B37" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="57"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -3398,13 +3470,13 @@
       <c r="H37" s="15"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="64">
+      <c r="A38" s="63">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="57"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -3412,13 +3484,13 @@
       <c r="H38" s="15"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="64">
+      <c r="A39" s="63">
         <v>5.2</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="57"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -3426,13 +3498,13 @@
       <c r="H39" s="15"/>
     </row>
     <row r="40" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="63">
+      <c r="A40" s="62">
         <v>6</v>
       </c>
       <c r="B40" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="57"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -3440,13 +3512,13 @@
       <c r="H40" s="15"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="64">
+      <c r="A41" s="63">
         <v>6.1</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="57"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -3454,13 +3526,13 @@
       <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="64">
+      <c r="A42" s="63">
         <v>6.2</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="57"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -3468,13 +3540,13 @@
       <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="64">
+      <c r="A43" s="63">
         <v>6.3</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="57"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -3482,13 +3554,13 @@
       <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="64">
+      <c r="A44" s="63">
         <v>6.4</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="57"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -3496,13 +3568,13 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="64">
+      <c r="A45" s="63">
         <v>6.5</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="57"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
@@ -3510,13 +3582,13 @@
       <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="64">
+      <c r="A46" s="63">
         <v>6.6</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="57"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
@@ -3524,13 +3596,13 @@
       <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="64">
+      <c r="A47" s="63">
         <v>6.7</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="57"/>
+      <c r="C47" s="56"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -3538,13 +3610,13 @@
       <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="63">
+      <c r="A48" s="62">
         <v>7</v>
       </c>
       <c r="B48" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="57"/>
+      <c r="C48" s="56"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -3552,13 +3624,13 @@
       <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="64">
+      <c r="A49" s="63">
         <v>7.1</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="57"/>
+      <c r="C49" s="56"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -3566,13 +3638,13 @@
       <c r="H49" s="15"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="64">
+      <c r="A50" s="63">
         <v>7.2</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="57"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
@@ -3580,13 +3652,13 @@
       <c r="H50" s="15"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="64">
+      <c r="A51" s="63">
         <v>7.3</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="57"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
@@ -3594,13 +3666,13 @@
       <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="64">
+      <c r="A52" s="63">
         <v>7.4</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="57"/>
+      <c r="C52" s="56"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
@@ -3608,13 +3680,13 @@
       <c r="H52" s="15"/>
     </row>
     <row r="53" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="62" t="s">
         <v>122</v>
       </c>
       <c r="B53" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="57"/>
+      <c r="C53" s="56"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
@@ -3622,13 +3694,13 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="64" t="s">
+      <c r="A54" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="57"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -3636,13 +3708,13 @@
       <c r="H54" s="15"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="64" t="s">
+      <c r="A55" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="57"/>
+      <c r="C55" s="56"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -3650,9 +3722,9 @@
       <c r="H55" s="15"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="64"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="57"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="56"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -3660,9 +3732,9 @@
       <c r="H56" s="15"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="64"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="57"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="56"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -3670,9 +3742,9 @@
       <c r="H57" s="15"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="64"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="57"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="56"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
@@ -3680,9 +3752,9 @@
       <c r="H58" s="15"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="57"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="56"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
@@ -3690,9 +3762,9 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="64"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="57"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="56"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
@@ -3785,8 +3857,8 @@
   </sheetPr>
   <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3808,17 +3880,21 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
+      <c r="A3" s="70">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="71" t="s">
         <v>133</v>
       </c>
       <c r="C3" s="50"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="16">
+        <v>0</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="46"/>
